--- a/recipes/Tradis_adapter_primers.xlsx
+++ b/recipes/Tradis_adapter_primers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="300" windowWidth="27420" windowHeight="12240" activeTab="4"/>
+    <workbookView xWindow="740" yWindow="380" windowWidth="16780" windowHeight="14540" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SplA5 adapter" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,12 @@
     <sheet name="SplAP5.x" sheetId="5" r:id="rId4"/>
     <sheet name="qPCR" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1220,16 +1225,16 @@
     <t>NB  * indicates a phosphorothioate group</t>
   </si>
   <si>
-    <t>qPCR 2.1</t>
-  </si>
-  <si>
-    <t>qPCR2.2</t>
-  </si>
-  <si>
     <t>CAAGCAGAAGACGGCATACGA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAG</t>
+  </si>
+  <si>
+    <t>qPCR 2.2</t>
+  </si>
+  <si>
+    <t>qPCR2.1</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1328,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1672,12 +1677,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="2" t="s">
         <v>398</v>
       </c>
@@ -1693,7 +1698,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1707,7 +1712,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1730,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1739,7 +1744,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1757,7 +1762,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1771,14 +1776,19 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>399</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1790,20 +1800,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1815,9 +1830,9 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +1843,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1837,7 +1852,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1863,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1857,7 +1872,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1866,7 +1881,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1892,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1886,7 +1901,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -1897,7 +1912,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1906,7 +1921,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1917,7 +1932,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1929,13 +1949,13 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="49">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1955,7 +1975,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="C2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="6"/>
@@ -1967,7 +1987,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -1996,7 +2016,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -2025,7 +2045,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -2052,7 +2072,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -2079,7 +2099,7 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
@@ -2106,7 +2126,7 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
@@ -2133,7 +2153,7 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -2160,7 +2180,7 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -2187,7 +2207,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
@@ -2214,7 +2234,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -2241,7 +2261,7 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
@@ -2268,7 +2288,7 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="10" t="s">
         <v>47</v>
       </c>
@@ -2295,7 +2315,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -2322,7 +2342,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="10" t="s">
         <v>53</v>
       </c>
@@ -2349,7 +2369,7 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2376,7 +2396,7 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="10" t="s">
         <v>59</v>
       </c>
@@ -2403,7 +2423,7 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="10" t="s">
         <v>62</v>
       </c>
@@ -2430,7 +2450,7 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="10" t="s">
         <v>65</v>
       </c>
@@ -2457,7 +2477,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="10" t="s">
         <v>68</v>
       </c>
@@ -2484,7 +2504,7 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="10" t="s">
         <v>71</v>
       </c>
@@ -2511,7 +2531,7 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="10" t="s">
         <v>74</v>
       </c>
@@ -2538,7 +2558,7 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="10" t="s">
         <v>77</v>
       </c>
@@ -2565,7 +2585,7 @@
       <c r="P24" s="18"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="10" t="s">
         <v>80</v>
       </c>
@@ -2592,7 +2612,7 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="10" t="s">
         <v>83</v>
       </c>
@@ -2619,7 +2639,7 @@
       <c r="P26" s="18"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="10" t="s">
         <v>86</v>
       </c>
@@ -2646,7 +2666,7 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="10" t="s">
         <v>89</v>
       </c>
@@ -2673,7 +2693,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="10" t="s">
         <v>92</v>
       </c>
@@ -2700,7 +2720,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="10" t="s">
         <v>95</v>
       </c>
@@ -2727,7 +2747,7 @@
       <c r="P30" s="18"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="10" t="s">
         <v>98</v>
       </c>
@@ -2754,7 +2774,7 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="10" t="s">
         <v>101</v>
       </c>
@@ -2781,7 +2801,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="10" t="s">
         <v>104</v>
       </c>
@@ -2808,7 +2828,7 @@
       <c r="P33" s="18"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="10" t="s">
         <v>107</v>
       </c>
@@ -2835,7 +2855,7 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="10" t="s">
         <v>110</v>
       </c>
@@ -2862,7 +2882,7 @@
       <c r="P35" s="18"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="10" t="s">
         <v>113</v>
       </c>
@@ -2889,7 +2909,7 @@
       <c r="P36" s="18"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="10" t="s">
         <v>116</v>
       </c>
@@ -2916,7 +2936,7 @@
       <c r="P37" s="18"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="10" t="s">
         <v>119</v>
       </c>
@@ -2943,7 +2963,7 @@
       <c r="P38" s="18"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="10" t="s">
         <v>122</v>
       </c>
@@ -2970,7 +2990,7 @@
       <c r="P39" s="18"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="10" t="s">
         <v>125</v>
       </c>
@@ -2997,7 +3017,7 @@
       <c r="P40" s="18"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="10" t="s">
         <v>128</v>
       </c>
@@ -3024,7 +3044,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="10" t="s">
         <v>131</v>
       </c>
@@ -3051,7 +3071,7 @@
       <c r="P42" s="18"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="10" t="s">
         <v>134</v>
       </c>
@@ -3078,7 +3098,7 @@
       <c r="P43" s="18"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="10" t="s">
         <v>137</v>
       </c>
@@ -3105,7 +3125,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="10" t="s">
         <v>140</v>
       </c>
@@ -3132,7 +3152,7 @@
       <c r="P45" s="18"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="10" t="s">
         <v>143</v>
       </c>
@@ -3159,7 +3179,7 @@
       <c r="P46" s="18"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="10" t="s">
         <v>146</v>
       </c>
@@ -3186,7 +3206,7 @@
       <c r="P47" s="18"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="10" t="s">
         <v>149</v>
       </c>
@@ -3213,7 +3233,7 @@
       <c r="P48" s="18"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="10" t="s">
         <v>152</v>
       </c>
@@ -3240,7 +3260,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="10" t="s">
         <v>155</v>
       </c>
@@ -3267,7 +3287,7 @@
       <c r="P50" s="18"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="10" t="s">
         <v>158</v>
       </c>
@@ -3294,7 +3314,7 @@
       <c r="P51" s="18"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="10" t="s">
         <v>161</v>
       </c>
@@ -3321,7 +3341,7 @@
       <c r="P52" s="18"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="10" t="s">
         <v>164</v>
       </c>
@@ -3348,7 +3368,7 @@
       <c r="P53" s="18"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="10" t="s">
         <v>167</v>
       </c>
@@ -3375,7 +3395,7 @@
       <c r="P54" s="18"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="10" t="s">
         <v>170</v>
       </c>
@@ -3402,7 +3422,7 @@
       <c r="P55" s="18"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="10" t="s">
         <v>173</v>
       </c>
@@ -3429,7 +3449,7 @@
       <c r="P56" s="18"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="10" t="s">
         <v>176</v>
       </c>
@@ -3456,7 +3476,7 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="10" t="s">
         <v>179</v>
       </c>
@@ -3483,7 +3503,7 @@
       <c r="P58" s="18"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="10" t="s">
         <v>182</v>
       </c>
@@ -3510,7 +3530,7 @@
       <c r="P59" s="18"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="10" t="s">
         <v>185</v>
       </c>
@@ -3537,7 +3557,7 @@
       <c r="P60" s="18"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="10" t="s">
         <v>188</v>
       </c>
@@ -3564,7 +3584,7 @@
       <c r="P61" s="18"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="10" t="s">
         <v>191</v>
       </c>
@@ -3591,7 +3611,7 @@
       <c r="P62" s="18"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="10" t="s">
         <v>194</v>
       </c>
@@ -3618,7 +3638,7 @@
       <c r="P63" s="18"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="10" t="s">
         <v>197</v>
       </c>
@@ -3645,7 +3665,7 @@
       <c r="P64" s="18"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="10" t="s">
         <v>200</v>
       </c>
@@ -3672,7 +3692,7 @@
       <c r="P65" s="18"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66" s="10" t="s">
         <v>203</v>
       </c>
@@ -3699,7 +3719,7 @@
       <c r="P66" s="18"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="10" t="s">
         <v>206</v>
       </c>
@@ -3726,7 +3746,7 @@
       <c r="P67" s="18"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" s="10" t="s">
         <v>209</v>
       </c>
@@ -3753,7 +3773,7 @@
       <c r="P68" s="18"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" s="10" t="s">
         <v>212</v>
       </c>
@@ -3780,7 +3800,7 @@
       <c r="P69" s="18"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" s="10" t="s">
         <v>215</v>
       </c>
@@ -3807,7 +3827,7 @@
       <c r="P70" s="18"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" s="10" t="s">
         <v>218</v>
       </c>
@@ -3834,7 +3854,7 @@
       <c r="P71" s="18"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="10" t="s">
         <v>221</v>
       </c>
@@ -3861,7 +3881,7 @@
       <c r="P72" s="18"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" s="10" t="s">
         <v>224</v>
       </c>
@@ -3888,7 +3908,7 @@
       <c r="P73" s="18"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="10" t="s">
         <v>227</v>
       </c>
@@ -3915,7 +3935,7 @@
       <c r="P74" s="18"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="10" t="s">
         <v>230</v>
       </c>
@@ -3942,7 +3962,7 @@
       <c r="P75" s="18"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="10" t="s">
         <v>233</v>
       </c>
@@ -3969,7 +3989,7 @@
       <c r="P76" s="18"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="10" t="s">
         <v>236</v>
       </c>
@@ -3996,7 +4016,7 @@
       <c r="P77" s="18"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" s="10" t="s">
         <v>239</v>
       </c>
@@ -4023,7 +4043,7 @@
       <c r="P78" s="18"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79" s="10" t="s">
         <v>242</v>
       </c>
@@ -4050,7 +4070,7 @@
       <c r="P79" s="18"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80" s="10" t="s">
         <v>245</v>
       </c>
@@ -4077,7 +4097,7 @@
       <c r="P80" s="18"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="10" t="s">
         <v>248</v>
       </c>
@@ -4104,7 +4124,7 @@
       <c r="P81" s="18"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="10" t="s">
         <v>251</v>
       </c>
@@ -4131,7 +4151,7 @@
       <c r="P82" s="18"/>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" s="10" t="s">
         <v>254</v>
       </c>
@@ -4158,7 +4178,7 @@
       <c r="P83" s="18"/>
       <c r="Q83" s="15"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84" s="10" t="s">
         <v>257</v>
       </c>
@@ -4185,7 +4205,7 @@
       <c r="P84" s="18"/>
       <c r="Q84" s="15"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="10" t="s">
         <v>260</v>
       </c>
@@ -4212,7 +4232,7 @@
       <c r="P85" s="18"/>
       <c r="Q85" s="15"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="10" t="s">
         <v>263</v>
       </c>
@@ -4239,7 +4259,7 @@
       <c r="P86" s="18"/>
       <c r="Q86" s="15"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="10" t="s">
         <v>266</v>
       </c>
@@ -4266,7 +4286,7 @@
       <c r="P87" s="18"/>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17">
       <c r="A88" s="10" t="s">
         <v>269</v>
       </c>
@@ -4293,7 +4313,7 @@
       <c r="P88" s="18"/>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17">
       <c r="A89" s="10" t="s">
         <v>272</v>
       </c>
@@ -4320,7 +4340,7 @@
       <c r="P89" s="18"/>
       <c r="Q89" s="15"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90" s="10" t="s">
         <v>275</v>
       </c>
@@ -4347,7 +4367,7 @@
       <c r="P90" s="18"/>
       <c r="Q90" s="15"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91" s="10" t="s">
         <v>278</v>
       </c>
@@ -4374,7 +4394,7 @@
       <c r="P91" s="18"/>
       <c r="Q91" s="15"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17">
       <c r="A92" s="10" t="s">
         <v>281</v>
       </c>
@@ -4401,7 +4421,7 @@
       <c r="P92" s="18"/>
       <c r="Q92" s="15"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" s="10" t="s">
         <v>284</v>
       </c>
@@ -4428,7 +4448,7 @@
       <c r="P93" s="18"/>
       <c r="Q93" s="15"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94" s="10" t="s">
         <v>287</v>
       </c>
@@ -4455,7 +4475,7 @@
       <c r="P94" s="18"/>
       <c r="Q94" s="15"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95" s="10" t="s">
         <v>290</v>
       </c>
@@ -4482,7 +4502,7 @@
       <c r="P95" s="18"/>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96" s="10" t="s">
         <v>293</v>
       </c>
@@ -4509,7 +4529,7 @@
       <c r="P96" s="18"/>
       <c r="Q96" s="15"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17">
       <c r="A97" s="10" t="s">
         <v>296</v>
       </c>
@@ -4536,7 +4556,7 @@
       <c r="P97" s="18"/>
       <c r="Q97" s="15"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17">
       <c r="A98" s="10" t="s">
         <v>299</v>
       </c>
@@ -4563,7 +4583,7 @@
       <c r="P98" s="18"/>
       <c r="Q98" s="15"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="5"/>
@@ -4578,7 +4598,7 @@
       <c r="O99" s="20"/>
       <c r="P99" s="19"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="5"/>
@@ -4590,7 +4610,7 @@
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="5"/>
@@ -4602,7 +4622,7 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="5"/>
@@ -4614,7 +4634,7 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="5"/>
@@ -4626,7 +4646,7 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="5"/>
@@ -4638,7 +4658,7 @@
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="5"/>
@@ -4650,7 +4670,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="5"/>
@@ -4662,7 +4682,7 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="5"/>
@@ -4674,7 +4694,7 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="5"/>
@@ -4686,7 +4706,7 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="5"/>
@@ -4698,7 +4718,7 @@
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="5"/>
@@ -4710,7 +4730,7 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="5"/>
@@ -4722,7 +4742,7 @@
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="5"/>
@@ -4734,7 +4754,7 @@
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="5"/>
@@ -4746,7 +4766,7 @@
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="5"/>
@@ -4758,7 +4778,7 @@
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="5"/>
@@ -4770,7 +4790,7 @@
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="5"/>
@@ -4782,7 +4802,7 @@
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="5"/>
@@ -4794,7 +4814,7 @@
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="5"/>
@@ -4806,7 +4826,7 @@
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="5"/>
@@ -4818,7 +4838,7 @@
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="5"/>
@@ -4830,7 +4850,7 @@
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
       <c r="C121" s="5"/>
@@ -4842,7 +4862,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
       <c r="C122" s="5"/>
@@ -4854,7 +4874,7 @@
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="5"/>
@@ -4866,7 +4886,7 @@
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="5"/>
@@ -4878,7 +4898,7 @@
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="5"/>
@@ -4890,7 +4910,7 @@
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="5"/>
@@ -4902,7 +4922,7 @@
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="5"/>
@@ -4914,7 +4934,7 @@
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="5"/>
@@ -4926,7 +4946,7 @@
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="5"/>
@@ -4938,7 +4958,7 @@
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="5"/>
@@ -4950,7 +4970,7 @@
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="5"/>
@@ -4962,7 +4982,7 @@
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="5"/>
@@ -4974,7 +4994,7 @@
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="5"/>
@@ -4986,7 +5006,7 @@
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="5"/>
@@ -4998,7 +5018,7 @@
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="5"/>
@@ -5010,7 +5030,7 @@
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="5"/>
@@ -5022,7 +5042,7 @@
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="5"/>
@@ -5034,7 +5054,7 @@
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="5"/>
@@ -5046,7 +5066,7 @@
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="5"/>
@@ -5058,7 +5078,7 @@
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="5"/>
@@ -5070,7 +5090,7 @@
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="5"/>
@@ -5082,7 +5102,7 @@
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="5"/>
@@ -5094,7 +5114,7 @@
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="5"/>
@@ -5106,7 +5126,7 @@
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="5"/>
@@ -5118,7 +5138,7 @@
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="5"/>
@@ -5130,7 +5150,7 @@
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="5"/>
@@ -5142,7 +5162,7 @@
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="5"/>
@@ -5154,7 +5174,7 @@
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="5"/>
@@ -5166,7 +5186,7 @@
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="5"/>
@@ -5178,7 +5198,7 @@
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="5"/>
@@ -5190,7 +5210,7 @@
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="5"/>
@@ -5202,7 +5222,7 @@
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="5"/>
@@ -5214,7 +5234,7 @@
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="5"/>
@@ -5226,7 +5246,7 @@
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="5"/>
@@ -5238,7 +5258,7 @@
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="5"/>
@@ -5250,7 +5270,7 @@
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
       <c r="C156" s="5"/>
@@ -5262,7 +5282,7 @@
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
       <c r="C157" s="5"/>
@@ -5274,7 +5294,7 @@
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
       <c r="C158" s="5"/>
@@ -5286,7 +5306,7 @@
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
       <c r="C159" s="5"/>
@@ -5298,7 +5318,7 @@
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="5"/>
@@ -5310,7 +5330,7 @@
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="5"/>
@@ -5322,7 +5342,7 @@
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="5"/>
@@ -5334,7 +5354,7 @@
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="5"/>
@@ -5346,7 +5366,7 @@
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="5"/>
@@ -5358,7 +5378,7 @@
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="13"/>
       <c r="B165" s="14"/>
       <c r="C165" s="5"/>
@@ -5370,7 +5390,7 @@
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" s="13"/>
       <c r="B166" s="14"/>
       <c r="C166" s="5"/>
@@ -5382,7 +5402,7 @@
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167" s="13"/>
       <c r="B167" s="14"/>
       <c r="C167" s="5"/>
@@ -5394,7 +5414,7 @@
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168" s="13"/>
       <c r="B168" s="14"/>
       <c r="C168" s="5"/>
@@ -5406,7 +5426,7 @@
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169" s="13"/>
       <c r="B169" s="14"/>
       <c r="C169" s="5"/>
@@ -5418,7 +5438,7 @@
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
       <c r="C170" s="5"/>
@@ -5430,7 +5450,7 @@
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
       <c r="C171" s="5"/>
@@ -5442,7 +5462,7 @@
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172" s="10"/>
       <c r="B172" s="14"/>
       <c r="C172" s="5"/>
@@ -5454,7 +5474,7 @@
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173" s="10"/>
       <c r="B173" s="14"/>
       <c r="C173" s="5"/>
@@ -5466,7 +5486,7 @@
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174" s="10"/>
       <c r="B174" s="14"/>
       <c r="C174" s="5"/>
@@ -5478,7 +5498,7 @@
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175" s="10"/>
       <c r="B175" s="14"/>
       <c r="C175" s="5"/>
@@ -5490,7 +5510,7 @@
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176" s="10"/>
       <c r="B176" s="14"/>
       <c r="C176" s="5"/>
@@ -5502,7 +5522,7 @@
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="10"/>
       <c r="B177" s="14"/>
       <c r="C177" s="5"/>
@@ -5514,7 +5534,7 @@
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178" s="10"/>
       <c r="B178" s="14"/>
       <c r="C178" s="5"/>
@@ -5526,7 +5546,7 @@
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179" s="10"/>
       <c r="B179" s="14"/>
       <c r="C179" s="5"/>
@@ -5538,7 +5558,7 @@
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="10"/>
       <c r="B180" s="14"/>
       <c r="C180" s="5"/>
@@ -5550,7 +5570,7 @@
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181" s="10"/>
       <c r="B181" s="14"/>
       <c r="C181" s="5"/>
@@ -5562,7 +5582,7 @@
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182" s="10"/>
       <c r="B182" s="14"/>
       <c r="C182" s="5"/>
@@ -5574,7 +5594,7 @@
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183" s="10"/>
       <c r="B183" s="14"/>
       <c r="C183" s="5"/>
@@ -5586,7 +5606,7 @@
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184" s="10"/>
       <c r="B184" s="14"/>
       <c r="C184" s="5"/>
@@ -5598,7 +5618,7 @@
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185" s="10"/>
       <c r="B185" s="14"/>
       <c r="C185" s="5"/>
@@ -5610,7 +5630,7 @@
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186" s="10"/>
       <c r="B186" s="14"/>
       <c r="C186" s="5"/>
@@ -5622,7 +5642,7 @@
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187" s="10"/>
       <c r="B187" s="14"/>
       <c r="C187" s="5"/>
@@ -5634,7 +5654,7 @@
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188" s="10"/>
       <c r="B188" s="14"/>
       <c r="C188" s="5"/>
@@ -5646,7 +5666,7 @@
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189" s="10"/>
       <c r="B189" s="14"/>
       <c r="C189" s="5"/>
@@ -5658,7 +5678,7 @@
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190" s="10"/>
       <c r="B190" s="14"/>
       <c r="C190" s="5"/>
@@ -5670,7 +5690,7 @@
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191" s="10"/>
       <c r="B191" s="14"/>
       <c r="C191" s="5"/>
@@ -5682,7 +5702,7 @@
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192" s="10"/>
       <c r="B192" s="14"/>
       <c r="C192" s="5"/>
@@ -5694,7 +5714,7 @@
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" s="10"/>
       <c r="B193" s="14"/>
       <c r="C193" s="5"/>
@@ -5706,7 +5726,7 @@
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194" s="10"/>
       <c r="B194" s="14"/>
       <c r="C194" s="5"/>
@@ -5718,7 +5738,7 @@
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" s="10"/>
       <c r="B195" s="14"/>
       <c r="C195" s="5"/>
@@ -5730,7 +5750,7 @@
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196" s="10"/>
       <c r="B196" s="14"/>
       <c r="C196" s="5"/>
@@ -5742,7 +5762,7 @@
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197" s="10"/>
       <c r="B197" s="14"/>
       <c r="C197" s="5"/>
@@ -5754,7 +5774,7 @@
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198" s="10"/>
       <c r="B198" s="14"/>
       <c r="C198" s="5"/>
@@ -5766,7 +5786,7 @@
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199" s="10"/>
       <c r="B199" s="14"/>
       <c r="C199" s="5"/>
@@ -5778,7 +5798,7 @@
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200" s="10"/>
       <c r="B200" s="14"/>
       <c r="C200" s="5"/>
@@ -5790,7 +5810,7 @@
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201" s="10"/>
       <c r="B201" s="14"/>
       <c r="C201" s="5"/>
@@ -5802,7 +5822,7 @@
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202" s="10"/>
       <c r="B202" s="14"/>
       <c r="C202" s="5"/>
@@ -5814,7 +5834,7 @@
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203" s="10"/>
       <c r="B203" s="14"/>
       <c r="C203" s="5"/>
@@ -5826,7 +5846,7 @@
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204" s="10"/>
       <c r="B204" s="14"/>
       <c r="C204" s="5"/>
@@ -5838,7 +5858,7 @@
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205" s="10"/>
       <c r="B205" s="14"/>
       <c r="C205" s="5"/>
@@ -5850,7 +5870,7 @@
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206" s="10"/>
       <c r="B206" s="14"/>
       <c r="C206" s="5"/>
@@ -5862,7 +5882,7 @@
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207" s="10"/>
       <c r="B207" s="14"/>
       <c r="C207" s="5"/>
@@ -5874,7 +5894,7 @@
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208" s="10"/>
       <c r="B208" s="14"/>
       <c r="C208" s="5"/>
@@ -5886,7 +5906,7 @@
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209" s="10"/>
       <c r="B209" s="14"/>
       <c r="C209" s="5"/>
@@ -5898,7 +5918,7 @@
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210" s="10"/>
       <c r="B210" s="14"/>
       <c r="C210" s="5"/>
@@ -5910,7 +5930,7 @@
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211" s="10"/>
       <c r="B211" s="14"/>
       <c r="C211" s="5"/>
@@ -5922,7 +5942,7 @@
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="A212" s="10"/>
       <c r="B212" s="14"/>
       <c r="C212" s="5"/>
@@ -5934,7 +5954,7 @@
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213" s="10"/>
       <c r="B213" s="14"/>
       <c r="C213" s="5"/>
@@ -5946,7 +5966,7 @@
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214" s="10"/>
       <c r="B214" s="14"/>
       <c r="C214" s="5"/>
@@ -5958,7 +5978,7 @@
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11">
       <c r="A215" s="10"/>
       <c r="B215" s="14"/>
       <c r="C215" s="5"/>
@@ -5970,7 +5990,7 @@
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11">
       <c r="A216" s="10"/>
       <c r="B216" s="14"/>
       <c r="C216" s="5"/>
@@ -5982,7 +6002,7 @@
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11">
       <c r="A217" s="10"/>
       <c r="B217" s="14"/>
       <c r="C217" s="5"/>
@@ -5994,7 +6014,7 @@
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11">
       <c r="A218" s="10"/>
       <c r="B218" s="14"/>
       <c r="C218" s="5"/>
@@ -6006,7 +6026,7 @@
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11">
       <c r="A219" s="10"/>
       <c r="B219" s="14"/>
       <c r="C219" s="5"/>
@@ -6018,7 +6038,7 @@
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11">
       <c r="A220" s="10"/>
       <c r="B220" s="14"/>
       <c r="C220" s="5"/>
@@ -6030,7 +6050,7 @@
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221" s="10"/>
       <c r="B221" s="14"/>
       <c r="C221" s="5"/>
@@ -6042,7 +6062,7 @@
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11">
       <c r="A222" s="10"/>
       <c r="B222" s="14"/>
       <c r="C222" s="5"/>
@@ -6054,7 +6074,7 @@
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11">
       <c r="A223" s="10"/>
       <c r="B223" s="14"/>
       <c r="C223" s="5"/>
@@ -6066,7 +6086,7 @@
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11">
       <c r="A224" s="10"/>
       <c r="B224" s="14"/>
       <c r="C224" s="5"/>
@@ -6078,7 +6098,7 @@
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11">
       <c r="A225" s="10"/>
       <c r="B225" s="14"/>
       <c r="C225" s="5"/>
@@ -6090,7 +6110,7 @@
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11">
       <c r="A226" s="10"/>
       <c r="B226" s="14"/>
       <c r="C226" s="5"/>
@@ -6102,7 +6122,7 @@
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11">
       <c r="A227" s="10"/>
       <c r="B227" s="14"/>
       <c r="C227" s="5"/>
@@ -6114,7 +6134,7 @@
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11">
       <c r="A228" s="10"/>
       <c r="B228" s="14"/>
       <c r="C228" s="5"/>
@@ -6126,7 +6146,7 @@
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11">
       <c r="A229" s="10"/>
       <c r="B229" s="14"/>
       <c r="C229" s="5"/>
@@ -6138,7 +6158,7 @@
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11">
       <c r="A230" s="10"/>
       <c r="B230" s="14"/>
       <c r="C230" s="5"/>
@@ -6150,7 +6170,7 @@
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231" s="10"/>
       <c r="B231" s="14"/>
       <c r="C231" s="5"/>
@@ -6162,7 +6182,7 @@
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11">
       <c r="A232" s="10"/>
       <c r="B232" s="14"/>
       <c r="C232" s="5"/>
@@ -6174,7 +6194,7 @@
       <c r="J232" s="5"/>
       <c r="K232" s="5"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11">
       <c r="A233" s="10"/>
       <c r="B233" s="14"/>
       <c r="C233" s="5"/>
@@ -6186,7 +6206,7 @@
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11">
       <c r="A234" s="10"/>
       <c r="B234" s="14"/>
       <c r="C234" s="5"/>
@@ -6198,7 +6218,7 @@
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11">
       <c r="A235" s="10"/>
       <c r="B235" s="14"/>
       <c r="C235" s="5"/>
@@ -6210,7 +6230,7 @@
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11">
       <c r="A236" s="10"/>
       <c r="B236" s="14"/>
       <c r="C236" s="5"/>
@@ -6222,7 +6242,7 @@
       <c r="J236" s="5"/>
       <c r="K236" s="5"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11">
       <c r="A237" s="10"/>
       <c r="B237" s="14"/>
       <c r="C237" s="5"/>
@@ -6234,7 +6254,7 @@
       <c r="J237" s="5"/>
       <c r="K237" s="5"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11">
       <c r="A238" s="10"/>
       <c r="B238" s="14"/>
       <c r="C238" s="5"/>
@@ -6246,7 +6266,7 @@
       <c r="J238" s="5"/>
       <c r="K238" s="5"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11">
       <c r="A239" s="10"/>
       <c r="B239" s="14"/>
       <c r="C239" s="5"/>
@@ -6258,7 +6278,7 @@
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240" s="10"/>
       <c r="B240" s="14"/>
       <c r="C240" s="5"/>
@@ -6270,7 +6290,7 @@
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11">
       <c r="A241" s="10"/>
       <c r="B241" s="14"/>
       <c r="C241" s="5"/>
@@ -6282,7 +6302,7 @@
       <c r="J241" s="5"/>
       <c r="K241" s="5"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11">
       <c r="A242" s="10"/>
       <c r="B242" s="14"/>
       <c r="C242" s="5"/>
@@ -6294,7 +6314,7 @@
       <c r="J242" s="5"/>
       <c r="K242" s="5"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243" s="10"/>
       <c r="B243" s="14"/>
       <c r="C243" s="5"/>
@@ -6306,7 +6326,7 @@
       <c r="J243" s="5"/>
       <c r="K243" s="5"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11">
       <c r="A244" s="10"/>
       <c r="B244" s="14"/>
       <c r="C244" s="5"/>
@@ -6318,7 +6338,7 @@
       <c r="J244" s="5"/>
       <c r="K244" s="5"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11">
       <c r="A245" s="10"/>
       <c r="B245" s="14"/>
       <c r="C245" s="5"/>
@@ -6330,7 +6350,7 @@
       <c r="J245" s="5"/>
       <c r="K245" s="5"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11">
       <c r="A246" s="10"/>
       <c r="B246" s="14"/>
       <c r="C246" s="5"/>
@@ -6342,7 +6362,7 @@
       <c r="J246" s="5"/>
       <c r="K246" s="5"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247" s="10"/>
       <c r="B247" s="14"/>
       <c r="C247" s="5"/>
@@ -6354,7 +6374,7 @@
       <c r="J247" s="5"/>
       <c r="K247" s="5"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11">
       <c r="A248" s="10"/>
       <c r="B248" s="14"/>
       <c r="C248" s="5"/>
@@ -6366,7 +6386,7 @@
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249" s="10"/>
       <c r="B249" s="14"/>
       <c r="C249" s="5"/>
@@ -6378,7 +6398,7 @@
       <c r="J249" s="5"/>
       <c r="K249" s="5"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11">
       <c r="A250" s="10"/>
       <c r="B250" s="14"/>
       <c r="C250" s="5"/>
@@ -6390,7 +6410,7 @@
       <c r="J250" s="5"/>
       <c r="K250" s="5"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11">
       <c r="A251" s="10"/>
       <c r="B251" s="14"/>
       <c r="C251" s="5"/>
@@ -6402,7 +6422,7 @@
       <c r="J251" s="5"/>
       <c r="K251" s="5"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11">
       <c r="A252" s="10"/>
       <c r="B252" s="14"/>
       <c r="C252" s="5"/>
@@ -6414,7 +6434,7 @@
       <c r="J252" s="5"/>
       <c r="K252" s="5"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11">
       <c r="A253" s="10"/>
       <c r="B253" s="14"/>
       <c r="C253" s="5"/>
@@ -6426,7 +6446,7 @@
       <c r="J253" s="5"/>
       <c r="K253" s="5"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11">
       <c r="A254" s="10"/>
       <c r="B254" s="14"/>
       <c r="C254" s="5"/>
@@ -6438,7 +6458,7 @@
       <c r="J254" s="5"/>
       <c r="K254" s="5"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255" s="10"/>
       <c r="B255" s="14"/>
       <c r="C255" s="5"/>
@@ -6450,7 +6470,7 @@
       <c r="J255" s="5"/>
       <c r="K255" s="5"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11">
       <c r="A256" s="10"/>
       <c r="B256" s="14"/>
       <c r="C256" s="5"/>
@@ -6462,7 +6482,7 @@
       <c r="J256" s="5"/>
       <c r="K256" s="5"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11">
       <c r="A257" s="10"/>
       <c r="B257" s="14"/>
       <c r="C257" s="5"/>
@@ -6474,7 +6494,7 @@
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11">
       <c r="A258" s="10"/>
       <c r="B258" s="14"/>
       <c r="C258" s="5"/>
@@ -6486,7 +6506,7 @@
       <c r="J258" s="5"/>
       <c r="K258" s="5"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11">
       <c r="A259" s="10"/>
       <c r="B259" s="14"/>
       <c r="C259" s="5"/>
@@ -6498,7 +6518,7 @@
       <c r="J259" s="5"/>
       <c r="K259" s="5"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260" s="10"/>
       <c r="B260" s="14"/>
       <c r="C260" s="5"/>
@@ -6510,7 +6530,7 @@
       <c r="J260" s="5"/>
       <c r="K260" s="5"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11">
       <c r="A261" s="10"/>
       <c r="B261" s="14"/>
       <c r="C261" s="5"/>
@@ -6522,7 +6542,7 @@
       <c r="J261" s="5"/>
       <c r="K261" s="5"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11">
       <c r="A262" s="10"/>
       <c r="B262" s="14"/>
       <c r="C262" s="5"/>
@@ -6534,7 +6554,7 @@
       <c r="J262" s="5"/>
       <c r="K262" s="5"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11">
       <c r="A263" s="10"/>
       <c r="B263" s="14"/>
       <c r="C263" s="5"/>
@@ -6546,7 +6566,7 @@
       <c r="J263" s="5"/>
       <c r="K263" s="5"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11">
       <c r="A264" s="10"/>
       <c r="B264" s="14"/>
       <c r="C264" s="5"/>
@@ -6558,7 +6578,7 @@
       <c r="J264" s="5"/>
       <c r="K264" s="5"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11">
       <c r="A265" s="10"/>
       <c r="B265" s="14"/>
       <c r="C265" s="5"/>
@@ -6570,7 +6590,7 @@
       <c r="J265" s="5"/>
       <c r="K265" s="5"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266" s="10"/>
       <c r="B266" s="14"/>
       <c r="C266" s="5"/>
@@ -6582,7 +6602,7 @@
       <c r="J266" s="5"/>
       <c r="K266" s="5"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11">
       <c r="A267" s="10"/>
       <c r="B267" s="14"/>
       <c r="C267" s="5"/>
@@ -6594,7 +6614,7 @@
       <c r="J267" s="5"/>
       <c r="K267" s="5"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268" s="10"/>
       <c r="B268" s="14"/>
       <c r="C268" s="5"/>
@@ -6606,7 +6626,7 @@
       <c r="J268" s="5"/>
       <c r="K268" s="5"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11">
       <c r="A269" s="10"/>
       <c r="B269" s="14"/>
       <c r="C269" s="5"/>
@@ -6618,7 +6638,7 @@
       <c r="J269" s="5"/>
       <c r="K269" s="5"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270" s="10"/>
       <c r="B270" s="14"/>
       <c r="C270" s="5"/>
@@ -6630,7 +6650,7 @@
       <c r="J270" s="5"/>
       <c r="K270" s="5"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11">
       <c r="A271" s="10"/>
       <c r="B271" s="14"/>
       <c r="C271" s="5"/>
@@ -6642,7 +6662,7 @@
       <c r="J271" s="5"/>
       <c r="K271" s="5"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11">
       <c r="A272" s="10"/>
       <c r="B272" s="14"/>
       <c r="C272" s="5"/>
@@ -6654,7 +6674,7 @@
       <c r="J272" s="5"/>
       <c r="K272" s="5"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11">
       <c r="A273" s="10"/>
       <c r="B273" s="14"/>
       <c r="C273" s="5"/>
@@ -6666,7 +6686,7 @@
       <c r="J273" s="5"/>
       <c r="K273" s="5"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11">
       <c r="A274" s="10"/>
       <c r="B274" s="14"/>
       <c r="C274" s="5"/>
@@ -6678,7 +6698,7 @@
       <c r="J274" s="5"/>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275" s="10"/>
       <c r="B275" s="14"/>
       <c r="C275" s="5"/>
@@ -6690,7 +6710,7 @@
       <c r="J275" s="5"/>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11">
       <c r="A276" s="10"/>
       <c r="B276" s="14"/>
       <c r="C276" s="5"/>
@@ -6702,7 +6722,7 @@
       <c r="J276" s="5"/>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11">
       <c r="A277" s="10"/>
       <c r="B277" s="14"/>
       <c r="C277" s="5"/>
@@ -6714,7 +6734,7 @@
       <c r="J277" s="5"/>
       <c r="K277" s="5"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11">
       <c r="A278" s="10"/>
       <c r="B278" s="14"/>
       <c r="C278" s="5"/>
@@ -6726,7 +6746,7 @@
       <c r="J278" s="5"/>
       <c r="K278" s="5"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279" s="10"/>
       <c r="B279" s="14"/>
       <c r="C279" s="5"/>
@@ -6738,7 +6758,7 @@
       <c r="J279" s="5"/>
       <c r="K279" s="5"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11">
       <c r="A280" s="10"/>
       <c r="B280" s="14"/>
       <c r="C280" s="5"/>
@@ -6750,7 +6770,7 @@
       <c r="J280" s="5"/>
       <c r="K280" s="5"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11">
       <c r="A281" s="10"/>
       <c r="B281" s="14"/>
       <c r="C281" s="5"/>
@@ -6762,7 +6782,7 @@
       <c r="J281" s="5"/>
       <c r="K281" s="5"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11">
       <c r="A282" s="10"/>
       <c r="B282" s="14"/>
       <c r="C282" s="5"/>
@@ -6774,7 +6794,7 @@
       <c r="J282" s="5"/>
       <c r="K282" s="5"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283" s="10"/>
       <c r="B283" s="14"/>
       <c r="C283" s="5"/>
@@ -6786,7 +6806,7 @@
       <c r="J283" s="5"/>
       <c r="K283" s="5"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11">
       <c r="A284" s="10"/>
       <c r="B284" s="14"/>
       <c r="C284" s="5"/>
@@ -6798,7 +6818,7 @@
       <c r="J284" s="5"/>
       <c r="K284" s="5"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11">
       <c r="A285" s="10"/>
       <c r="B285" s="14"/>
       <c r="C285" s="5"/>
@@ -6810,7 +6830,7 @@
       <c r="J285" s="5"/>
       <c r="K285" s="5"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11">
       <c r="A286" s="10"/>
       <c r="B286" s="14"/>
       <c r="C286" s="5"/>
@@ -6822,7 +6842,7 @@
       <c r="J286" s="5"/>
       <c r="K286" s="5"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11">
       <c r="A287" s="10"/>
       <c r="B287" s="14"/>
       <c r="C287" s="5"/>
@@ -6834,7 +6854,7 @@
       <c r="J287" s="5"/>
       <c r="K287" s="5"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288" s="10"/>
       <c r="B288" s="14"/>
       <c r="C288" s="5"/>
@@ -6846,7 +6866,7 @@
       <c r="J288" s="5"/>
       <c r="K288" s="5"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11">
       <c r="A289" s="10"/>
       <c r="B289" s="14"/>
       <c r="C289" s="5"/>
@@ -6858,7 +6878,7 @@
       <c r="J289" s="5"/>
       <c r="K289" s="5"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11">
       <c r="A290" s="10"/>
       <c r="B290" s="14"/>
       <c r="C290" s="5"/>
@@ -6870,7 +6890,7 @@
       <c r="J290" s="5"/>
       <c r="K290" s="5"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11">
       <c r="A291" s="10"/>
       <c r="B291" s="14"/>
       <c r="C291" s="5"/>
@@ -6882,7 +6902,7 @@
       <c r="J291" s="5"/>
       <c r="K291" s="5"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11">
       <c r="A292" s="10"/>
       <c r="B292" s="14"/>
       <c r="C292" s="5"/>
@@ -6894,7 +6914,7 @@
       <c r="J292" s="5"/>
       <c r="K292" s="5"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293" s="10"/>
       <c r="B293" s="14"/>
       <c r="C293" s="5"/>
@@ -6906,7 +6926,7 @@
       <c r="J293" s="5"/>
       <c r="K293" s="5"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11">
       <c r="A294" s="10"/>
       <c r="B294" s="14"/>
       <c r="C294" s="5"/>
@@ -6918,7 +6938,7 @@
       <c r="J294" s="5"/>
       <c r="K294" s="5"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295" s="10"/>
       <c r="B295" s="14"/>
       <c r="C295" s="5"/>
@@ -6930,7 +6950,7 @@
       <c r="J295" s="5"/>
       <c r="K295" s="5"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11">
       <c r="A296" s="10"/>
       <c r="B296" s="14"/>
       <c r="C296" s="5"/>
@@ -6942,7 +6962,7 @@
       <c r="J296" s="5"/>
       <c r="K296" s="5"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11">
       <c r="A297" s="10"/>
       <c r="B297" s="14"/>
       <c r="C297" s="5"/>
@@ -6954,7 +6974,7 @@
       <c r="J297" s="5"/>
       <c r="K297" s="5"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11">
       <c r="A298" s="10"/>
       <c r="B298" s="14"/>
       <c r="C298" s="5"/>
@@ -6966,7 +6986,7 @@
       <c r="J298" s="5"/>
       <c r="K298" s="5"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11">
       <c r="A299" s="10"/>
       <c r="B299" s="14"/>
       <c r="C299" s="5"/>
@@ -6978,7 +6998,7 @@
       <c r="J299" s="5"/>
       <c r="K299" s="5"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11">
       <c r="A300" s="10"/>
       <c r="B300" s="14"/>
       <c r="C300" s="5"/>
@@ -6990,7 +7010,7 @@
       <c r="J300" s="5"/>
       <c r="K300" s="5"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11">
       <c r="A301" s="10"/>
       <c r="B301" s="14"/>
       <c r="C301" s="5"/>
@@ -7002,7 +7022,7 @@
       <c r="J301" s="5"/>
       <c r="K301" s="5"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11">
       <c r="A302" s="10"/>
       <c r="B302" s="14"/>
       <c r="C302" s="5"/>
@@ -7014,7 +7034,7 @@
       <c r="J302" s="5"/>
       <c r="K302" s="5"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11">
       <c r="A303" s="10"/>
       <c r="B303" s="14"/>
       <c r="C303" s="5"/>
@@ -7026,7 +7046,7 @@
       <c r="J303" s="5"/>
       <c r="K303" s="5"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11">
       <c r="A304" s="10"/>
       <c r="B304" s="14"/>
       <c r="C304" s="5"/>
@@ -7038,7 +7058,7 @@
       <c r="J304" s="5"/>
       <c r="K304" s="5"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11">
       <c r="A305" s="10"/>
       <c r="B305" s="14"/>
       <c r="C305" s="5"/>
@@ -7050,7 +7070,7 @@
       <c r="J305" s="5"/>
       <c r="K305" s="5"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306" s="10"/>
       <c r="B306" s="14"/>
       <c r="C306" s="5"/>
@@ -7062,7 +7082,7 @@
       <c r="J306" s="5"/>
       <c r="K306" s="5"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11">
       <c r="A307" s="10"/>
       <c r="B307" s="14"/>
       <c r="C307" s="5"/>
@@ -7074,7 +7094,7 @@
       <c r="J307" s="5"/>
       <c r="K307" s="5"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11">
       <c r="A308" s="10"/>
       <c r="B308" s="14"/>
       <c r="C308" s="5"/>
@@ -7086,7 +7106,7 @@
       <c r="J308" s="5"/>
       <c r="K308" s="5"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11">
       <c r="A309" s="10"/>
       <c r="B309" s="14"/>
       <c r="C309" s="5"/>
@@ -7098,7 +7118,7 @@
       <c r="J309" s="5"/>
       <c r="K309" s="5"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11">
       <c r="A310" s="10"/>
       <c r="B310" s="14"/>
       <c r="C310" s="5"/>
@@ -7110,7 +7130,7 @@
       <c r="J310" s="5"/>
       <c r="K310" s="5"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11">
       <c r="A311" s="10"/>
       <c r="B311" s="14"/>
       <c r="C311" s="5"/>
@@ -7122,7 +7142,7 @@
       <c r="J311" s="5"/>
       <c r="K311" s="5"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11">
       <c r="A312" s="10"/>
       <c r="B312" s="14"/>
       <c r="C312" s="5"/>
@@ -7134,7 +7154,7 @@
       <c r="J312" s="5"/>
       <c r="K312" s="5"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11">
       <c r="A313" s="10"/>
       <c r="B313" s="14"/>
       <c r="C313" s="5"/>
@@ -7146,7 +7166,7 @@
       <c r="J313" s="5"/>
       <c r="K313" s="5"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11">
       <c r="A314" s="10"/>
       <c r="B314" s="14"/>
       <c r="C314" s="5"/>
@@ -7158,7 +7178,7 @@
       <c r="J314" s="5"/>
       <c r="K314" s="5"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11">
       <c r="A315" s="10"/>
       <c r="B315" s="14"/>
       <c r="C315" s="5"/>
@@ -7170,7 +7190,7 @@
       <c r="J315" s="5"/>
       <c r="K315" s="5"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11">
       <c r="A316" s="10"/>
       <c r="B316" s="14"/>
       <c r="C316" s="5"/>
@@ -7182,7 +7202,7 @@
       <c r="J316" s="5"/>
       <c r="K316" s="5"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317" s="10"/>
       <c r="B317" s="14"/>
       <c r="C317" s="5"/>
@@ -7194,7 +7214,7 @@
       <c r="J317" s="5"/>
       <c r="K317" s="5"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318" s="10"/>
       <c r="B318" s="14"/>
       <c r="C318" s="5"/>
@@ -7206,7 +7226,7 @@
       <c r="J318" s="5"/>
       <c r="K318" s="5"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11">
       <c r="A319" s="10"/>
       <c r="B319" s="14"/>
       <c r="C319" s="5"/>
@@ -7218,7 +7238,7 @@
       <c r="J319" s="5"/>
       <c r="K319" s="5"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11">
       <c r="A320" s="10"/>
       <c r="B320" s="14"/>
       <c r="C320" s="5"/>
@@ -7230,7 +7250,7 @@
       <c r="J320" s="5"/>
       <c r="K320" s="5"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11">
       <c r="A321" s="10"/>
       <c r="B321" s="14"/>
       <c r="C321" s="5"/>
@@ -7242,7 +7262,7 @@
       <c r="J321" s="5"/>
       <c r="K321" s="5"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11">
       <c r="A322" s="10"/>
       <c r="B322" s="14"/>
       <c r="C322" s="5"/>
@@ -7254,7 +7274,7 @@
       <c r="J322" s="5"/>
       <c r="K322" s="5"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323" s="10"/>
       <c r="B323" s="14"/>
       <c r="C323" s="5"/>
@@ -7266,7 +7286,7 @@
       <c r="J323" s="5"/>
       <c r="K323" s="5"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11">
       <c r="A324" s="10"/>
       <c r="B324" s="14"/>
       <c r="C324" s="5"/>
@@ -7278,7 +7298,7 @@
       <c r="J324" s="5"/>
       <c r="K324" s="5"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11">
       <c r="A325" s="10"/>
       <c r="B325" s="14"/>
       <c r="C325" s="5"/>
@@ -7290,7 +7310,7 @@
       <c r="J325" s="5"/>
       <c r="K325" s="5"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11">
       <c r="A326" s="10"/>
       <c r="B326" s="14"/>
       <c r="C326" s="5"/>
@@ -7302,7 +7322,7 @@
       <c r="J326" s="5"/>
       <c r="K326" s="5"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11">
       <c r="A327" s="10"/>
       <c r="B327" s="14"/>
       <c r="C327" s="5"/>
@@ -7314,7 +7334,7 @@
       <c r="J327" s="5"/>
       <c r="K327" s="5"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328" s="10"/>
       <c r="B328" s="14"/>
       <c r="C328" s="5"/>
@@ -7326,7 +7346,7 @@
       <c r="J328" s="5"/>
       <c r="K328" s="5"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11">
       <c r="A329" s="10"/>
       <c r="B329" s="14"/>
       <c r="C329" s="5"/>
@@ -7338,7 +7358,7 @@
       <c r="J329" s="5"/>
       <c r="K329" s="5"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11">
       <c r="A330" s="10"/>
       <c r="B330" s="14"/>
       <c r="C330" s="5"/>
@@ -7350,7 +7370,7 @@
       <c r="J330" s="5"/>
       <c r="K330" s="5"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11">
       <c r="A331" s="10"/>
       <c r="B331" s="14"/>
       <c r="C331" s="5"/>
@@ -7362,7 +7382,7 @@
       <c r="J331" s="5"/>
       <c r="K331" s="5"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11">
       <c r="A332" s="10"/>
       <c r="B332" s="14"/>
       <c r="C332" s="5"/>
@@ -7374,7 +7394,7 @@
       <c r="J332" s="5"/>
       <c r="K332" s="5"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11">
       <c r="A333" s="10"/>
       <c r="B333" s="14"/>
       <c r="C333" s="5"/>
@@ -7386,7 +7406,7 @@
       <c r="J333" s="5"/>
       <c r="K333" s="5"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11">
       <c r="A334" s="10"/>
       <c r="B334" s="14"/>
       <c r="C334" s="5"/>
@@ -7398,7 +7418,7 @@
       <c r="J334" s="5"/>
       <c r="K334" s="5"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335" s="10"/>
       <c r="B335" s="14"/>
       <c r="C335" s="5"/>
@@ -7410,7 +7430,7 @@
       <c r="J335" s="5"/>
       <c r="K335" s="5"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11">
       <c r="A336" s="10"/>
       <c r="B336" s="14"/>
       <c r="C336" s="5"/>
@@ -7422,7 +7442,7 @@
       <c r="J336" s="5"/>
       <c r="K336" s="5"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11">
       <c r="A337" s="10"/>
       <c r="B337" s="14"/>
       <c r="C337" s="5"/>
@@ -7434,7 +7454,7 @@
       <c r="J337" s="5"/>
       <c r="K337" s="5"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11">
       <c r="A338" s="10"/>
       <c r="B338" s="14"/>
       <c r="C338" s="5"/>
@@ -7446,7 +7466,7 @@
       <c r="J338" s="5"/>
       <c r="K338" s="5"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339" s="10"/>
       <c r="B339" s="14"/>
       <c r="C339" s="5"/>
@@ -7458,7 +7478,7 @@
       <c r="J339" s="5"/>
       <c r="K339" s="5"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11">
       <c r="A340" s="10"/>
       <c r="B340" s="14"/>
       <c r="C340" s="5"/>
@@ -7470,7 +7490,7 @@
       <c r="J340" s="5"/>
       <c r="K340" s="5"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11">
       <c r="A341" s="10"/>
       <c r="B341" s="14"/>
       <c r="C341" s="5"/>
@@ -7482,7 +7502,7 @@
       <c r="J341" s="5"/>
       <c r="K341" s="5"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11">
       <c r="A342" s="10"/>
       <c r="B342" s="14"/>
       <c r="C342" s="5"/>
@@ -7494,7 +7514,7 @@
       <c r="J342" s="5"/>
       <c r="K342" s="5"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11">
       <c r="A343" s="10"/>
       <c r="B343" s="14"/>
       <c r="C343" s="5"/>
@@ -7506,7 +7526,7 @@
       <c r="J343" s="5"/>
       <c r="K343" s="5"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344" s="10"/>
       <c r="B344" s="14"/>
       <c r="C344" s="5"/>
@@ -7518,7 +7538,7 @@
       <c r="J344" s="5"/>
       <c r="K344" s="5"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11">
       <c r="A345" s="10"/>
       <c r="B345" s="14"/>
       <c r="C345" s="5"/>
@@ -7530,7 +7550,7 @@
       <c r="J345" s="5"/>
       <c r="K345" s="5"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346" s="10"/>
       <c r="B346" s="14"/>
       <c r="C346" s="5"/>
@@ -7542,7 +7562,7 @@
       <c r="J346" s="5"/>
       <c r="K346" s="5"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11">
       <c r="A347" s="10"/>
       <c r="B347" s="14"/>
       <c r="C347" s="5"/>
@@ -7554,7 +7574,7 @@
       <c r="J347" s="5"/>
       <c r="K347" s="5"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11">
       <c r="A348" s="10"/>
       <c r="B348" s="14"/>
       <c r="C348" s="5"/>
@@ -7566,7 +7586,7 @@
       <c r="J348" s="5"/>
       <c r="K348" s="5"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11">
       <c r="A349" s="10"/>
       <c r="B349" s="14"/>
       <c r="C349" s="5"/>
@@ -7578,7 +7598,7 @@
       <c r="J349" s="5"/>
       <c r="K349" s="5"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11">
       <c r="A350" s="10"/>
       <c r="B350" s="14"/>
       <c r="C350" s="5"/>
@@ -7590,7 +7610,7 @@
       <c r="J350" s="5"/>
       <c r="K350" s="5"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11">
       <c r="A351" s="10"/>
       <c r="B351" s="14"/>
       <c r="C351" s="5"/>
@@ -7602,7 +7622,7 @@
       <c r="J351" s="5"/>
       <c r="K351" s="5"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11">
       <c r="A352" s="10"/>
       <c r="B352" s="14"/>
       <c r="C352" s="5"/>
@@ -7614,7 +7634,7 @@
       <c r="J352" s="5"/>
       <c r="K352" s="5"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11">
       <c r="A353" s="10"/>
       <c r="B353" s="14"/>
       <c r="C353" s="5"/>
@@ -7626,7 +7646,7 @@
       <c r="J353" s="5"/>
       <c r="K353" s="5"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11">
       <c r="A354" s="10"/>
       <c r="B354" s="14"/>
       <c r="C354" s="5"/>
@@ -7638,7 +7658,7 @@
       <c r="J354" s="5"/>
       <c r="K354" s="5"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11">
       <c r="A355" s="10"/>
       <c r="B355" s="14"/>
       <c r="C355" s="5"/>
@@ -7650,7 +7670,7 @@
       <c r="J355" s="5"/>
       <c r="K355" s="5"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11">
       <c r="A356" s="10"/>
       <c r="B356" s="14"/>
       <c r="C356" s="5"/>
@@ -7662,7 +7682,7 @@
       <c r="J356" s="5"/>
       <c r="K356" s="5"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11">
       <c r="A357" s="10"/>
       <c r="B357" s="14"/>
       <c r="C357" s="5"/>
@@ -7674,7 +7694,7 @@
       <c r="J357" s="5"/>
       <c r="K357" s="5"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11">
       <c r="A358" s="10"/>
       <c r="B358" s="14"/>
       <c r="C358" s="5"/>
@@ -7686,7 +7706,7 @@
       <c r="J358" s="5"/>
       <c r="K358" s="5"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11">
       <c r="A359" s="10"/>
       <c r="B359" s="14"/>
       <c r="C359" s="5"/>
@@ -7698,7 +7718,7 @@
       <c r="J359" s="5"/>
       <c r="K359" s="5"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11">
       <c r="A360" s="10"/>
       <c r="B360" s="14"/>
       <c r="C360" s="5"/>
@@ -7710,7 +7730,7 @@
       <c r="J360" s="5"/>
       <c r="K360" s="5"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11">
       <c r="A361" s="10"/>
       <c r="B361" s="14"/>
       <c r="C361" s="5"/>
@@ -7722,7 +7742,7 @@
       <c r="J361" s="5"/>
       <c r="K361" s="5"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11">
       <c r="A362" s="10"/>
       <c r="B362" s="14"/>
       <c r="C362" s="5"/>
@@ -7734,7 +7754,7 @@
       <c r="J362" s="5"/>
       <c r="K362" s="5"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11">
       <c r="A363" s="10"/>
       <c r="B363" s="14"/>
       <c r="C363" s="5"/>
@@ -7746,7 +7766,7 @@
       <c r="J363" s="5"/>
       <c r="K363" s="5"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11">
       <c r="A364" s="10"/>
       <c r="B364" s="14"/>
       <c r="C364" s="5"/>
@@ -7758,7 +7778,7 @@
       <c r="J364" s="5"/>
       <c r="K364" s="5"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11">
       <c r="A365" s="10"/>
       <c r="B365" s="14"/>
       <c r="C365" s="5"/>
@@ -7770,7 +7790,7 @@
       <c r="J365" s="5"/>
       <c r="K365" s="5"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11">
       <c r="A366" s="10"/>
       <c r="B366" s="14"/>
       <c r="C366" s="5"/>
@@ -7782,7 +7802,7 @@
       <c r="J366" s="5"/>
       <c r="K366" s="5"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11">
       <c r="A367" s="10"/>
       <c r="B367" s="14"/>
       <c r="C367" s="5"/>
@@ -7794,7 +7814,7 @@
       <c r="J367" s="5"/>
       <c r="K367" s="5"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11">
       <c r="A368" s="10"/>
       <c r="B368" s="14"/>
       <c r="C368" s="5"/>
@@ -7806,7 +7826,7 @@
       <c r="J368" s="5"/>
       <c r="K368" s="5"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11">
       <c r="A369" s="10"/>
       <c r="B369" s="14"/>
       <c r="C369" s="5"/>
@@ -7818,7 +7838,7 @@
       <c r="J369" s="5"/>
       <c r="K369" s="5"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11">
       <c r="A370" s="10"/>
       <c r="B370" s="14"/>
       <c r="C370" s="5"/>
@@ -7830,7 +7850,7 @@
       <c r="J370" s="5"/>
       <c r="K370" s="5"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11">
       <c r="A371" s="10"/>
       <c r="B371" s="14"/>
       <c r="C371" s="5"/>
@@ -7842,7 +7862,7 @@
       <c r="J371" s="5"/>
       <c r="K371" s="5"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11">
       <c r="A372" s="10"/>
       <c r="B372" s="14"/>
       <c r="C372" s="5"/>
@@ -7854,7 +7874,7 @@
       <c r="J372" s="5"/>
       <c r="K372" s="5"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11">
       <c r="A373" s="10"/>
       <c r="B373" s="14"/>
       <c r="C373" s="5"/>
@@ -7866,7 +7886,7 @@
       <c r="J373" s="5"/>
       <c r="K373" s="5"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11">
       <c r="A374" s="10"/>
       <c r="B374" s="14"/>
       <c r="C374" s="5"/>
@@ -7878,7 +7898,7 @@
       <c r="J374" s="5"/>
       <c r="K374" s="5"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11">
       <c r="A375" s="10"/>
       <c r="B375" s="14"/>
       <c r="C375" s="5"/>
@@ -7890,7 +7910,7 @@
       <c r="J375" s="5"/>
       <c r="K375" s="5"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11">
       <c r="A376" s="10"/>
       <c r="B376" s="14"/>
       <c r="C376" s="5"/>
@@ -7902,7 +7922,7 @@
       <c r="J376" s="5"/>
       <c r="K376" s="5"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11">
       <c r="A377" s="10"/>
       <c r="B377" s="14"/>
       <c r="C377" s="5"/>
@@ -7914,7 +7934,7 @@
       <c r="J377" s="5"/>
       <c r="K377" s="5"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11">
       <c r="A378" s="10"/>
       <c r="B378" s="14"/>
       <c r="C378" s="5"/>
@@ -7926,7 +7946,7 @@
       <c r="J378" s="5"/>
       <c r="K378" s="5"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11">
       <c r="A379" s="10"/>
       <c r="B379" s="14"/>
       <c r="C379" s="5"/>
@@ -7938,7 +7958,7 @@
       <c r="J379" s="5"/>
       <c r="K379" s="5"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11">
       <c r="A380" s="10"/>
       <c r="B380" s="14"/>
       <c r="C380" s="5"/>
@@ -7950,7 +7970,7 @@
       <c r="J380" s="5"/>
       <c r="K380" s="5"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11">
       <c r="A381" s="10"/>
       <c r="B381" s="14"/>
       <c r="C381" s="5"/>
@@ -7962,7 +7982,7 @@
       <c r="J381" s="5"/>
       <c r="K381" s="5"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11">
       <c r="A382" s="10"/>
       <c r="B382" s="14"/>
       <c r="C382" s="5"/>
@@ -7974,7 +7994,7 @@
       <c r="J382" s="5"/>
       <c r="K382" s="5"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11">
       <c r="A383" s="10"/>
       <c r="B383" s="14"/>
       <c r="C383" s="5"/>
@@ -7986,7 +8006,7 @@
       <c r="J383" s="5"/>
       <c r="K383" s="5"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11">
       <c r="A384" s="10"/>
       <c r="B384" s="14"/>
       <c r="C384" s="5"/>
@@ -7998,7 +8018,7 @@
       <c r="J384" s="5"/>
       <c r="K384" s="5"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11">
       <c r="A385" s="10"/>
       <c r="B385" s="14"/>
       <c r="C385" s="5"/>
@@ -8010,7 +8030,7 @@
       <c r="J385" s="5"/>
       <c r="K385" s="5"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11">
       <c r="A386" s="10"/>
       <c r="B386" s="14"/>
       <c r="C386" s="5"/>
@@ -8022,7 +8042,7 @@
       <c r="J386" s="5"/>
       <c r="K386" s="5"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11">
       <c r="A387" s="10"/>
       <c r="B387" s="14"/>
       <c r="C387" s="5"/>
@@ -8034,7 +8054,7 @@
       <c r="J387" s="5"/>
       <c r="K387" s="5"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11">
       <c r="A388" s="10"/>
       <c r="B388" s="14"/>
       <c r="C388" s="5"/>
@@ -8046,7 +8066,7 @@
       <c r="J388" s="5"/>
       <c r="K388" s="5"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11">
       <c r="A389" s="10"/>
       <c r="B389" s="14"/>
       <c r="C389" s="5"/>
@@ -8058,7 +8078,7 @@
       <c r="J389" s="5"/>
       <c r="K389" s="5"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11">
       <c r="A390" s="10"/>
       <c r="B390" s="14"/>
       <c r="C390" s="5"/>
@@ -8070,7 +8090,7 @@
       <c r="J390" s="5"/>
       <c r="K390" s="5"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11">
       <c r="A391" s="10"/>
       <c r="B391" s="14"/>
       <c r="C391" s="5"/>
@@ -8082,7 +8102,7 @@
       <c r="J391" s="5"/>
       <c r="K391" s="5"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11">
       <c r="A392" s="10"/>
       <c r="B392" s="14"/>
       <c r="C392" s="5"/>
@@ -8094,7 +8114,7 @@
       <c r="J392" s="5"/>
       <c r="K392" s="5"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11">
       <c r="A393" s="10"/>
       <c r="B393" s="14"/>
       <c r="C393" s="5"/>
@@ -8106,7 +8126,7 @@
       <c r="J393" s="5"/>
       <c r="K393" s="5"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11">
       <c r="A394" s="10"/>
       <c r="B394" s="14"/>
       <c r="C394" s="5"/>
@@ -8118,7 +8138,7 @@
       <c r="J394" s="5"/>
       <c r="K394" s="5"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11">
       <c r="A395" s="10"/>
       <c r="B395" s="14"/>
       <c r="C395" s="5"/>
@@ -8130,7 +8150,7 @@
       <c r="J395" s="5"/>
       <c r="K395" s="5"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11">
       <c r="A396" s="10"/>
       <c r="B396" s="14"/>
       <c r="C396" s="5"/>
@@ -8142,7 +8162,7 @@
       <c r="J396" s="5"/>
       <c r="K396" s="5"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11">
       <c r="A397" s="10"/>
       <c r="B397" s="14"/>
       <c r="C397" s="5"/>
@@ -8154,7 +8174,7 @@
       <c r="J397" s="5"/>
       <c r="K397" s="5"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11">
       <c r="A398" s="10"/>
       <c r="B398" s="14"/>
       <c r="C398" s="5"/>
@@ -8166,7 +8186,7 @@
       <c r="J398" s="5"/>
       <c r="K398" s="5"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399" s="10"/>
       <c r="B399" s="14"/>
       <c r="C399" s="5"/>
@@ -8178,7 +8198,7 @@
       <c r="J399" s="5"/>
       <c r="K399" s="5"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11">
       <c r="A400" s="10"/>
       <c r="B400" s="14"/>
       <c r="C400" s="5"/>
@@ -8190,7 +8210,7 @@
       <c r="J400" s="5"/>
       <c r="K400" s="5"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11">
       <c r="A401" s="10"/>
       <c r="B401" s="14"/>
       <c r="C401" s="5"/>
@@ -8202,7 +8222,7 @@
       <c r="J401" s="5"/>
       <c r="K401" s="5"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11">
       <c r="A402" s="10"/>
       <c r="B402" s="14"/>
       <c r="C402" s="5"/>
@@ -8214,7 +8234,7 @@
       <c r="J402" s="5"/>
       <c r="K402" s="5"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11">
       <c r="A403" s="10"/>
       <c r="B403" s="14"/>
       <c r="C403" s="5"/>
@@ -8226,7 +8246,7 @@
       <c r="J403" s="5"/>
       <c r="K403" s="5"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11">
       <c r="A404" s="10"/>
       <c r="B404" s="14"/>
       <c r="C404" s="5"/>
@@ -8238,7 +8258,7 @@
       <c r="J404" s="5"/>
       <c r="K404" s="5"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11">
       <c r="A405" s="10"/>
       <c r="B405" s="14"/>
       <c r="C405" s="5"/>
@@ -8250,7 +8270,7 @@
       <c r="J405" s="5"/>
       <c r="K405" s="5"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11">
       <c r="A406" s="10"/>
       <c r="B406" s="14"/>
       <c r="C406" s="5"/>
@@ -8262,7 +8282,7 @@
       <c r="J406" s="5"/>
       <c r="K406" s="5"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11">
       <c r="A407" s="10"/>
       <c r="B407" s="14"/>
       <c r="C407" s="5"/>
@@ -8274,7 +8294,7 @@
       <c r="J407" s="5"/>
       <c r="K407" s="5"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11">
       <c r="A408" s="10"/>
       <c r="B408" s="14"/>
       <c r="C408" s="5"/>
@@ -8286,7 +8306,7 @@
       <c r="J408" s="5"/>
       <c r="K408" s="5"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11">
       <c r="A409" s="10"/>
       <c r="B409" s="14"/>
       <c r="C409" s="5"/>
@@ -8298,7 +8318,7 @@
       <c r="J409" s="5"/>
       <c r="K409" s="5"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11">
       <c r="A410" s="10"/>
       <c r="B410" s="14"/>
       <c r="C410" s="5"/>
@@ -8310,7 +8330,7 @@
       <c r="J410" s="5"/>
       <c r="K410" s="5"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11">
       <c r="A411" s="10"/>
       <c r="B411" s="14"/>
       <c r="C411" s="5"/>
@@ -8322,7 +8342,7 @@
       <c r="J411" s="5"/>
       <c r="K411" s="5"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11">
       <c r="A412" s="10"/>
       <c r="B412" s="14"/>
       <c r="C412" s="5"/>
@@ -8334,7 +8354,7 @@
       <c r="J412" s="5"/>
       <c r="K412" s="5"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11">
       <c r="A413" s="10"/>
       <c r="B413" s="14"/>
       <c r="C413" s="5"/>
@@ -8346,7 +8366,7 @@
       <c r="J413" s="5"/>
       <c r="K413" s="5"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11">
       <c r="A414" s="10"/>
       <c r="B414" s="14"/>
       <c r="C414" s="5"/>
@@ -8358,7 +8378,7 @@
       <c r="J414" s="5"/>
       <c r="K414" s="5"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11">
       <c r="A415" s="10"/>
       <c r="B415" s="14"/>
       <c r="C415" s="5"/>
@@ -8370,7 +8390,7 @@
       <c r="J415" s="5"/>
       <c r="K415" s="5"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11">
       <c r="A416" s="10"/>
       <c r="B416" s="14"/>
       <c r="C416" s="5"/>
@@ -8382,7 +8402,7 @@
       <c r="J416" s="5"/>
       <c r="K416" s="5"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11">
       <c r="A417" s="10"/>
       <c r="B417" s="14"/>
       <c r="C417" s="5"/>
@@ -8394,7 +8414,7 @@
       <c r="J417" s="5"/>
       <c r="K417" s="5"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11">
       <c r="A418" s="10"/>
       <c r="B418" s="14"/>
       <c r="C418" s="5"/>
@@ -8406,7 +8426,7 @@
       <c r="J418" s="5"/>
       <c r="K418" s="5"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11">
       <c r="A419" s="10"/>
       <c r="B419" s="14"/>
       <c r="C419" s="5"/>
@@ -8418,7 +8438,7 @@
       <c r="J419" s="5"/>
       <c r="K419" s="5"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11">
       <c r="A420" s="10"/>
       <c r="B420" s="14"/>
       <c r="C420" s="5"/>
@@ -8430,7 +8450,7 @@
       <c r="J420" s="5"/>
       <c r="K420" s="5"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11">
       <c r="A421" s="10"/>
       <c r="B421" s="14"/>
       <c r="C421" s="5"/>
@@ -8442,7 +8462,7 @@
       <c r="J421" s="5"/>
       <c r="K421" s="5"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11">
       <c r="A422" s="10"/>
       <c r="B422" s="14"/>
       <c r="C422" s="5"/>
@@ -8454,7 +8474,7 @@
       <c r="J422" s="5"/>
       <c r="K422" s="5"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11">
       <c r="A423" s="10"/>
       <c r="B423" s="14"/>
       <c r="C423" s="5"/>
@@ -8466,7 +8486,7 @@
       <c r="J423" s="5"/>
       <c r="K423" s="5"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11">
       <c r="A424" s="10"/>
       <c r="B424" s="14"/>
       <c r="C424" s="5"/>
@@ -8478,7 +8498,7 @@
       <c r="J424" s="5"/>
       <c r="K424" s="5"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11">
       <c r="A425" s="10"/>
       <c r="B425" s="14"/>
       <c r="C425" s="5"/>
@@ -8490,7 +8510,7 @@
       <c r="J425" s="5"/>
       <c r="K425" s="5"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11">
       <c r="A426" s="10"/>
       <c r="B426" s="14"/>
       <c r="C426" s="5"/>
@@ -8502,7 +8522,7 @@
       <c r="J426" s="5"/>
       <c r="K426" s="5"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11">
       <c r="A427" s="10"/>
       <c r="B427" s="14"/>
       <c r="C427" s="5"/>
@@ -8514,7 +8534,7 @@
       <c r="J427" s="5"/>
       <c r="K427" s="5"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11">
       <c r="A428" s="10"/>
       <c r="B428" s="14"/>
       <c r="C428" s="5"/>
@@ -8526,7 +8546,7 @@
       <c r="J428" s="5"/>
       <c r="K428" s="5"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11">
       <c r="A429" s="10"/>
       <c r="B429" s="14"/>
       <c r="C429" s="5"/>
@@ -8538,7 +8558,7 @@
       <c r="J429" s="5"/>
       <c r="K429" s="5"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11">
       <c r="A430" s="10"/>
       <c r="B430" s="14"/>
       <c r="C430" s="5"/>
@@ -8550,7 +8570,7 @@
       <c r="J430" s="5"/>
       <c r="K430" s="5"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11">
       <c r="A431" s="10"/>
       <c r="B431" s="14"/>
       <c r="C431" s="5"/>
@@ -8562,7 +8582,7 @@
       <c r="J431" s="5"/>
       <c r="K431" s="5"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11">
       <c r="A432" s="10"/>
       <c r="B432" s="14"/>
       <c r="C432" s="5"/>
@@ -8574,7 +8594,7 @@
       <c r="J432" s="5"/>
       <c r="K432" s="5"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11">
       <c r="A433" s="10"/>
       <c r="B433" s="14"/>
       <c r="C433" s="5"/>
@@ -8586,7 +8606,7 @@
       <c r="J433" s="5"/>
       <c r="K433" s="5"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11">
       <c r="A434" s="10"/>
       <c r="B434" s="14"/>
       <c r="C434" s="5"/>
@@ -8598,7 +8618,7 @@
       <c r="J434" s="5"/>
       <c r="K434" s="5"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11">
       <c r="A435" s="10"/>
       <c r="B435" s="14"/>
       <c r="C435" s="5"/>
@@ -8610,7 +8630,7 @@
       <c r="J435" s="5"/>
       <c r="K435" s="5"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11">
       <c r="A436" s="10"/>
       <c r="B436" s="14"/>
       <c r="C436" s="5"/>
@@ -8622,7 +8642,7 @@
       <c r="J436" s="5"/>
       <c r="K436" s="5"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11">
       <c r="A437" s="10"/>
       <c r="B437" s="14"/>
       <c r="C437" s="5"/>
@@ -8634,7 +8654,7 @@
       <c r="J437" s="5"/>
       <c r="K437" s="5"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11">
       <c r="A438" s="10"/>
       <c r="B438" s="14"/>
       <c r="C438" s="5"/>
@@ -8646,7 +8666,7 @@
       <c r="J438" s="5"/>
       <c r="K438" s="5"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11">
       <c r="A439" s="10"/>
       <c r="B439" s="14"/>
       <c r="C439" s="5"/>
@@ -8658,7 +8678,7 @@
       <c r="J439" s="5"/>
       <c r="K439" s="5"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11">
       <c r="A440" s="10"/>
       <c r="B440" s="14"/>
       <c r="C440" s="5"/>
@@ -8670,7 +8690,7 @@
       <c r="J440" s="5"/>
       <c r="K440" s="5"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11">
       <c r="A441" s="10"/>
       <c r="B441" s="14"/>
       <c r="C441" s="5"/>
@@ -8682,7 +8702,7 @@
       <c r="J441" s="5"/>
       <c r="K441" s="5"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11">
       <c r="A442" s="10"/>
       <c r="B442" s="14"/>
       <c r="C442" s="5"/>
@@ -8694,7 +8714,7 @@
       <c r="J442" s="5"/>
       <c r="K442" s="5"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11">
       <c r="A443" s="10"/>
       <c r="B443" s="14"/>
       <c r="C443" s="5"/>
@@ -8706,7 +8726,7 @@
       <c r="J443" s="5"/>
       <c r="K443" s="5"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11">
       <c r="A444" s="10"/>
       <c r="B444" s="14"/>
       <c r="C444" s="5"/>
@@ -8718,7 +8738,7 @@
       <c r="J444" s="5"/>
       <c r="K444" s="5"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11">
       <c r="A445" s="10"/>
       <c r="B445" s="14"/>
       <c r="C445" s="5"/>
@@ -8730,7 +8750,7 @@
       <c r="J445" s="5"/>
       <c r="K445" s="5"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11">
       <c r="A446" s="10"/>
       <c r="B446" s="14"/>
       <c r="C446" s="5"/>
@@ -8742,7 +8762,7 @@
       <c r="J446" s="5"/>
       <c r="K446" s="5"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11">
       <c r="A447" s="10"/>
       <c r="B447" s="14"/>
       <c r="C447" s="5"/>
@@ -8754,7 +8774,7 @@
       <c r="J447" s="5"/>
       <c r="K447" s="5"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11">
       <c r="A448" s="10"/>
       <c r="B448" s="14"/>
       <c r="C448" s="5"/>
@@ -8766,7 +8786,7 @@
       <c r="J448" s="5"/>
       <c r="K448" s="5"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11">
       <c r="A449" s="10"/>
       <c r="B449" s="14"/>
       <c r="C449" s="5"/>
@@ -8778,7 +8798,7 @@
       <c r="J449" s="5"/>
       <c r="K449" s="5"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11">
       <c r="A450" s="10"/>
       <c r="B450" s="14"/>
       <c r="C450" s="5"/>
@@ -8790,7 +8810,7 @@
       <c r="J450" s="5"/>
       <c r="K450" s="5"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11">
       <c r="A451" s="10"/>
       <c r="B451" s="14"/>
       <c r="C451" s="5"/>
@@ -8802,7 +8822,7 @@
       <c r="J451" s="5"/>
       <c r="K451" s="5"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11">
       <c r="A452" s="10"/>
       <c r="B452" s="14"/>
       <c r="C452" s="5"/>
@@ -8814,7 +8834,7 @@
       <c r="J452" s="5"/>
       <c r="K452" s="5"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11">
       <c r="A453" s="10"/>
       <c r="B453" s="14"/>
       <c r="C453" s="5"/>
@@ -8826,7 +8846,7 @@
       <c r="J453" s="5"/>
       <c r="K453" s="5"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11">
       <c r="A454" s="10"/>
       <c r="B454" s="14"/>
       <c r="C454" s="5"/>
@@ -8838,7 +8858,7 @@
       <c r="J454" s="5"/>
       <c r="K454" s="5"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11">
       <c r="A455" s="10"/>
       <c r="B455" s="14"/>
       <c r="C455" s="5"/>
@@ -8850,7 +8870,7 @@
       <c r="J455" s="5"/>
       <c r="K455" s="5"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11">
       <c r="A456" s="10"/>
       <c r="B456" s="14"/>
       <c r="C456" s="5"/>
@@ -8862,7 +8882,7 @@
       <c r="J456" s="5"/>
       <c r="K456" s="5"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11">
       <c r="A457" s="10"/>
       <c r="B457" s="14"/>
       <c r="C457" s="5"/>
@@ -8874,7 +8894,7 @@
       <c r="J457" s="5"/>
       <c r="K457" s="5"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11">
       <c r="A458" s="10"/>
       <c r="B458" s="14"/>
       <c r="C458" s="5"/>
@@ -8886,7 +8906,7 @@
       <c r="J458" s="5"/>
       <c r="K458" s="5"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11">
       <c r="A459" s="10"/>
       <c r="B459" s="14"/>
       <c r="C459" s="5"/>
@@ -8898,7 +8918,7 @@
       <c r="J459" s="5"/>
       <c r="K459" s="5"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11">
       <c r="A460" s="10"/>
       <c r="B460" s="14"/>
       <c r="C460" s="5"/>
@@ -8910,7 +8930,7 @@
       <c r="J460" s="5"/>
       <c r="K460" s="5"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11">
       <c r="A461" s="10"/>
       <c r="B461" s="14"/>
       <c r="C461" s="5"/>
@@ -8922,7 +8942,7 @@
       <c r="J461" s="5"/>
       <c r="K461" s="5"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11">
       <c r="A462" s="10"/>
       <c r="B462" s="14"/>
       <c r="C462" s="5"/>
@@ -8934,7 +8954,7 @@
       <c r="J462" s="5"/>
       <c r="K462" s="5"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11">
       <c r="A463" s="10"/>
       <c r="B463" s="14"/>
       <c r="C463" s="5"/>
@@ -8946,7 +8966,7 @@
       <c r="J463" s="5"/>
       <c r="K463" s="5"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11">
       <c r="A464" s="10"/>
       <c r="B464" s="14"/>
       <c r="C464" s="5"/>
@@ -8958,7 +8978,7 @@
       <c r="J464" s="5"/>
       <c r="K464" s="5"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11">
       <c r="A465" s="10"/>
       <c r="B465" s="14"/>
       <c r="C465" s="5"/>
@@ -8970,7 +8990,7 @@
       <c r="J465" s="5"/>
       <c r="K465" s="5"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11">
       <c r="A466" s="10"/>
       <c r="B466" s="14"/>
       <c r="C466" s="5"/>
@@ -8982,7 +9002,7 @@
       <c r="J466" s="5"/>
       <c r="K466" s="5"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11">
       <c r="A467" s="10"/>
       <c r="B467" s="14"/>
       <c r="C467" s="5"/>
@@ -8994,7 +9014,7 @@
       <c r="J467" s="5"/>
       <c r="K467" s="5"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11">
       <c r="A468" s="10"/>
       <c r="B468" s="14"/>
       <c r="C468" s="5"/>
@@ -9006,7 +9026,7 @@
       <c r="J468" s="5"/>
       <c r="K468" s="5"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11">
       <c r="A469" s="10"/>
       <c r="B469" s="14"/>
       <c r="C469" s="5"/>
@@ -9018,7 +9038,7 @@
       <c r="J469" s="5"/>
       <c r="K469" s="5"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11">
       <c r="A470" s="10"/>
       <c r="B470" s="14"/>
       <c r="C470" s="5"/>
@@ -9030,7 +9050,7 @@
       <c r="J470" s="5"/>
       <c r="K470" s="5"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11">
       <c r="A471" s="10"/>
       <c r="B471" s="14"/>
       <c r="C471" s="5"/>
@@ -9042,7 +9062,7 @@
       <c r="J471" s="5"/>
       <c r="K471" s="5"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11">
       <c r="A472" s="10"/>
       <c r="B472" s="14"/>
       <c r="C472" s="5"/>
@@ -9054,7 +9074,7 @@
       <c r="J472" s="5"/>
       <c r="K472" s="5"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11">
       <c r="A473" s="10"/>
       <c r="B473" s="14"/>
       <c r="C473" s="5"/>
@@ -9066,7 +9086,7 @@
       <c r="J473" s="5"/>
       <c r="K473" s="5"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11">
       <c r="A474" s="10"/>
       <c r="B474" s="14"/>
       <c r="C474" s="5"/>
@@ -9078,7 +9098,7 @@
       <c r="J474" s="5"/>
       <c r="K474" s="5"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11">
       <c r="A475" s="10"/>
       <c r="B475" s="14"/>
       <c r="C475" s="5"/>
@@ -9090,7 +9110,7 @@
       <c r="J475" s="5"/>
       <c r="K475" s="5"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11">
       <c r="A476" s="10"/>
       <c r="B476" s="14"/>
       <c r="C476" s="5"/>
@@ -9102,7 +9122,7 @@
       <c r="J476" s="5"/>
       <c r="K476" s="5"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11">
       <c r="A477" s="10"/>
       <c r="B477" s="14"/>
       <c r="C477" s="5"/>
@@ -9114,7 +9134,7 @@
       <c r="J477" s="5"/>
       <c r="K477" s="5"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11">
       <c r="A478" s="10"/>
       <c r="B478" s="14"/>
       <c r="C478" s="5"/>
@@ -9126,7 +9146,7 @@
       <c r="J478" s="5"/>
       <c r="K478" s="5"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11">
       <c r="A479" s="10"/>
       <c r="B479" s="14"/>
       <c r="C479" s="5"/>
@@ -9138,7 +9158,7 @@
       <c r="J479" s="5"/>
       <c r="K479" s="5"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11">
       <c r="A480" s="10"/>
       <c r="B480" s="14"/>
       <c r="C480" s="5"/>
@@ -9150,7 +9170,7 @@
       <c r="J480" s="5"/>
       <c r="K480" s="5"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11">
       <c r="A481" s="10"/>
       <c r="B481" s="14"/>
       <c r="C481" s="5"/>
@@ -9162,7 +9182,7 @@
       <c r="J481" s="5"/>
       <c r="K481" s="5"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11">
       <c r="A482" s="10"/>
       <c r="B482" s="14"/>
       <c r="C482" s="5"/>
@@ -9174,7 +9194,7 @@
       <c r="J482" s="5"/>
       <c r="K482" s="5"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11">
       <c r="A483" s="10"/>
       <c r="B483" s="14"/>
       <c r="C483" s="5"/>
@@ -9186,7 +9206,7 @@
       <c r="J483" s="5"/>
       <c r="K483" s="5"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11">
       <c r="A484" s="10"/>
       <c r="B484" s="14"/>
       <c r="C484" s="5"/>
@@ -9198,7 +9218,7 @@
       <c r="J484" s="5"/>
       <c r="K484" s="5"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11">
       <c r="A485" s="10"/>
       <c r="B485" s="14"/>
       <c r="C485" s="5"/>
@@ -9210,7 +9230,7 @@
       <c r="J485" s="5"/>
       <c r="K485" s="5"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11">
       <c r="A486" s="10"/>
       <c r="B486" s="14"/>
       <c r="C486" s="5"/>
@@ -9222,7 +9242,7 @@
       <c r="J486" s="5"/>
       <c r="K486" s="5"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11">
       <c r="A487" s="10"/>
       <c r="B487" s="14"/>
       <c r="C487" s="5"/>
@@ -9234,7 +9254,7 @@
       <c r="J487" s="5"/>
       <c r="K487" s="5"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11">
       <c r="A488" s="10"/>
       <c r="B488" s="14"/>
       <c r="C488" s="5"/>
@@ -9246,7 +9266,7 @@
       <c r="J488" s="5"/>
       <c r="K488" s="5"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11">
       <c r="A489" s="10"/>
       <c r="B489" s="14"/>
       <c r="C489" s="5"/>
@@ -9258,7 +9278,7 @@
       <c r="J489" s="5"/>
       <c r="K489" s="5"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11">
       <c r="A490" s="10"/>
       <c r="B490" s="14"/>
       <c r="C490" s="5"/>
@@ -9270,7 +9290,7 @@
       <c r="J490" s="5"/>
       <c r="K490" s="5"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11">
       <c r="A491" s="10"/>
       <c r="B491" s="14"/>
       <c r="C491" s="5"/>
@@ -9282,7 +9302,7 @@
       <c r="J491" s="5"/>
       <c r="K491" s="5"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11">
       <c r="A492" s="10"/>
       <c r="B492" s="14"/>
       <c r="C492" s="5"/>
@@ -9294,7 +9314,7 @@
       <c r="J492" s="5"/>
       <c r="K492" s="5"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11">
       <c r="A493" s="10"/>
       <c r="B493" s="14"/>
       <c r="C493" s="5"/>
@@ -9306,7 +9326,7 @@
       <c r="J493" s="5"/>
       <c r="K493" s="5"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11">
       <c r="A494" s="10"/>
       <c r="B494" s="14"/>
       <c r="C494" s="5"/>
@@ -9318,7 +9338,7 @@
       <c r="J494" s="5"/>
       <c r="K494" s="5"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11">
       <c r="A495" s="10"/>
       <c r="B495" s="14"/>
       <c r="C495" s="5"/>
@@ -9330,7 +9350,7 @@
       <c r="J495" s="5"/>
       <c r="K495" s="5"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11">
       <c r="A496" s="10"/>
       <c r="B496" s="14"/>
       <c r="C496" s="5"/>
@@ -9342,7 +9362,7 @@
       <c r="J496" s="5"/>
       <c r="K496" s="5"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11">
       <c r="A497" s="10"/>
       <c r="B497" s="14"/>
       <c r="C497" s="5"/>
@@ -9354,7 +9374,7 @@
       <c r="J497" s="5"/>
       <c r="K497" s="5"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11">
       <c r="A498" s="10"/>
       <c r="B498" s="14"/>
       <c r="C498" s="5"/>
@@ -9366,7 +9386,7 @@
       <c r="J498" s="5"/>
       <c r="K498" s="5"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11">
       <c r="A499" s="10"/>
       <c r="B499" s="14"/>
       <c r="C499" s="5"/>
@@ -9378,7 +9398,7 @@
       <c r="J499" s="5"/>
       <c r="K499" s="5"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11">
       <c r="A500" s="10"/>
       <c r="B500" s="14"/>
       <c r="C500" s="5"/>
@@ -9390,7 +9410,7 @@
       <c r="J500" s="5"/>
       <c r="K500" s="5"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11">
       <c r="A501" s="10"/>
       <c r="B501" s="14"/>
       <c r="C501" s="5"/>
@@ -9402,7 +9422,7 @@
       <c r="J501" s="5"/>
       <c r="K501" s="5"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11">
       <c r="A502" s="10"/>
       <c r="B502" s="14"/>
       <c r="C502" s="5"/>
@@ -9414,7 +9434,7 @@
       <c r="J502" s="5"/>
       <c r="K502" s="5"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11">
       <c r="A503" s="10"/>
       <c r="B503" s="14"/>
       <c r="C503" s="5"/>
@@ -9426,7 +9446,7 @@
       <c r="J503" s="5"/>
       <c r="K503" s="5"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11">
       <c r="A504" s="10"/>
       <c r="B504" s="14"/>
       <c r="C504" s="5"/>
@@ -9438,7 +9458,7 @@
       <c r="J504" s="5"/>
       <c r="K504" s="5"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11">
       <c r="A505" s="10"/>
       <c r="B505" s="14"/>
       <c r="C505" s="5"/>
@@ -9450,7 +9470,7 @@
       <c r="J505" s="5"/>
       <c r="K505" s="5"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11">
       <c r="A506" s="10"/>
       <c r="B506" s="14"/>
       <c r="C506" s="5"/>
@@ -9462,7 +9482,7 @@
       <c r="J506" s="5"/>
       <c r="K506" s="5"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11">
       <c r="A507" s="10"/>
       <c r="B507" s="14"/>
       <c r="C507" s="5"/>
@@ -9474,7 +9494,7 @@
       <c r="J507" s="5"/>
       <c r="K507" s="5"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11">
       <c r="A508" s="10"/>
       <c r="B508" s="14"/>
       <c r="C508" s="5"/>
@@ -9486,7 +9506,7 @@
       <c r="J508" s="5"/>
       <c r="K508" s="5"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11">
       <c r="A509" s="10"/>
       <c r="B509" s="14"/>
       <c r="C509" s="5"/>
@@ -9498,7 +9518,7 @@
       <c r="J509" s="5"/>
       <c r="K509" s="5"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11">
       <c r="A510" s="10"/>
       <c r="B510" s="14"/>
       <c r="C510" s="5"/>
@@ -9510,7 +9530,7 @@
       <c r="J510" s="5"/>
       <c r="K510" s="5"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11">
       <c r="A511" s="10"/>
       <c r="B511" s="14"/>
       <c r="C511" s="5"/>
@@ -9522,7 +9542,7 @@
       <c r="J511" s="5"/>
       <c r="K511" s="5"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11">
       <c r="A512" s="10"/>
       <c r="B512" s="14"/>
       <c r="C512" s="5"/>
@@ -9534,7 +9554,7 @@
       <c r="J512" s="5"/>
       <c r="K512" s="5"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11">
       <c r="A513" s="10"/>
       <c r="B513" s="14"/>
       <c r="C513" s="5"/>
@@ -9546,7 +9566,7 @@
       <c r="J513" s="5"/>
       <c r="K513" s="5"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11">
       <c r="A514" s="10"/>
       <c r="B514" s="14"/>
       <c r="C514" s="5"/>
@@ -9558,7 +9578,7 @@
       <c r="J514" s="5"/>
       <c r="K514" s="5"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11">
       <c r="A515" s="10"/>
       <c r="B515" s="14"/>
       <c r="C515" s="5"/>
@@ -9570,7 +9590,7 @@
       <c r="J515" s="5"/>
       <c r="K515" s="5"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11">
       <c r="A516" s="10"/>
       <c r="B516" s="14"/>
       <c r="C516" s="5"/>
@@ -9582,7 +9602,7 @@
       <c r="J516" s="5"/>
       <c r="K516" s="5"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11">
       <c r="A517" s="10"/>
       <c r="B517" s="14"/>
       <c r="C517" s="5"/>
@@ -9594,7 +9614,7 @@
       <c r="J517" s="5"/>
       <c r="K517" s="5"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11">
       <c r="A518" s="10"/>
       <c r="B518" s="14"/>
       <c r="C518" s="5"/>
@@ -9606,7 +9626,7 @@
       <c r="J518" s="5"/>
       <c r="K518" s="5"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11">
       <c r="A519" s="10"/>
       <c r="B519" s="14"/>
       <c r="C519" s="5"/>
@@ -9618,7 +9638,7 @@
       <c r="J519" s="5"/>
       <c r="K519" s="5"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11">
       <c r="A520" s="10"/>
       <c r="B520" s="14"/>
       <c r="C520" s="5"/>
@@ -9630,7 +9650,7 @@
       <c r="J520" s="5"/>
       <c r="K520" s="5"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11">
       <c r="A521" s="10"/>
       <c r="B521" s="14"/>
       <c r="C521" s="5"/>
@@ -9642,7 +9662,7 @@
       <c r="J521" s="5"/>
       <c r="K521" s="5"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11">
       <c r="A522" s="10"/>
       <c r="B522" s="14"/>
       <c r="C522" s="5"/>
@@ -9654,7 +9674,7 @@
       <c r="J522" s="5"/>
       <c r="K522" s="5"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11">
       <c r="A523" s="10"/>
       <c r="B523" s="14"/>
       <c r="C523" s="5"/>
@@ -9666,7 +9686,7 @@
       <c r="J523" s="5"/>
       <c r="K523" s="5"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11">
       <c r="A524" s="10"/>
       <c r="B524" s="14"/>
       <c r="C524" s="5"/>
@@ -9678,7 +9698,7 @@
       <c r="J524" s="5"/>
       <c r="K524" s="5"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11">
       <c r="A525" s="10"/>
       <c r="B525" s="14"/>
       <c r="C525" s="5"/>
@@ -9690,7 +9710,7 @@
       <c r="J525" s="5"/>
       <c r="K525" s="5"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11">
       <c r="A526" s="10"/>
       <c r="B526" s="14"/>
       <c r="C526" s="5"/>
@@ -9702,7 +9722,7 @@
       <c r="J526" s="5"/>
       <c r="K526" s="5"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11">
       <c r="A527" s="10"/>
       <c r="B527" s="14"/>
       <c r="C527" s="5"/>
@@ -9714,7 +9734,7 @@
       <c r="J527" s="5"/>
       <c r="K527" s="5"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11">
       <c r="A528" s="10"/>
       <c r="B528" s="14"/>
       <c r="C528" s="5"/>
@@ -9726,7 +9746,7 @@
       <c r="J528" s="5"/>
       <c r="K528" s="5"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11">
       <c r="A529" s="10"/>
       <c r="B529" s="14"/>
       <c r="C529" s="5"/>
@@ -9738,7 +9758,7 @@
       <c r="J529" s="5"/>
       <c r="K529" s="5"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11">
       <c r="A530" s="10"/>
       <c r="B530" s="14"/>
       <c r="C530" s="5"/>
@@ -9750,7 +9770,7 @@
       <c r="J530" s="5"/>
       <c r="K530" s="5"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11">
       <c r="A531" s="10"/>
       <c r="B531" s="14"/>
       <c r="C531" s="5"/>
@@ -9762,7 +9782,7 @@
       <c r="J531" s="5"/>
       <c r="K531" s="5"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11">
       <c r="A532" s="10"/>
       <c r="B532" s="14"/>
       <c r="C532" s="5"/>
@@ -9774,7 +9794,7 @@
       <c r="J532" s="5"/>
       <c r="K532" s="5"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11">
       <c r="A533" s="10"/>
       <c r="B533" s="14"/>
       <c r="C533" s="5"/>
@@ -9786,7 +9806,7 @@
       <c r="J533" s="5"/>
       <c r="K533" s="5"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11">
       <c r="A534" s="10"/>
       <c r="B534" s="14"/>
       <c r="C534" s="5"/>
@@ -9798,7 +9818,7 @@
       <c r="J534" s="5"/>
       <c r="K534" s="5"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11">
       <c r="A535" s="10"/>
       <c r="B535" s="14"/>
       <c r="C535" s="5"/>
@@ -9810,7 +9830,7 @@
       <c r="J535" s="5"/>
       <c r="K535" s="5"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11">
       <c r="A536" s="10"/>
       <c r="B536" s="14"/>
       <c r="C536" s="5"/>
@@ -9822,7 +9842,7 @@
       <c r="J536" s="5"/>
       <c r="K536" s="5"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11">
       <c r="A537" s="10"/>
       <c r="B537" s="14"/>
       <c r="C537" s="5"/>
@@ -9834,7 +9854,7 @@
       <c r="J537" s="5"/>
       <c r="K537" s="5"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11">
       <c r="A538" s="10"/>
       <c r="B538" s="14"/>
       <c r="C538" s="5"/>
@@ -9846,7 +9866,7 @@
       <c r="J538" s="5"/>
       <c r="K538" s="5"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11">
       <c r="A539" s="10"/>
       <c r="B539" s="14"/>
       <c r="C539" s="5"/>
@@ -9858,7 +9878,7 @@
       <c r="J539" s="5"/>
       <c r="K539" s="5"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11">
       <c r="A540" s="10"/>
       <c r="B540" s="14"/>
       <c r="C540" s="5"/>
@@ -9870,7 +9890,7 @@
       <c r="J540" s="5"/>
       <c r="K540" s="5"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11">
       <c r="A541" s="10"/>
       <c r="B541" s="14"/>
       <c r="C541" s="5"/>
@@ -9882,7 +9902,7 @@
       <c r="J541" s="5"/>
       <c r="K541" s="5"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11">
       <c r="A542" s="10"/>
       <c r="B542" s="14"/>
       <c r="C542" s="5"/>
@@ -9894,7 +9914,7 @@
       <c r="J542" s="5"/>
       <c r="K542" s="5"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11">
       <c r="A543" s="10"/>
       <c r="B543" s="14"/>
       <c r="C543" s="5"/>
@@ -9906,7 +9926,7 @@
       <c r="J543" s="5"/>
       <c r="K543" s="5"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11">
       <c r="A544" s="10"/>
       <c r="B544" s="14"/>
       <c r="C544" s="5"/>
@@ -9918,7 +9938,7 @@
       <c r="J544" s="5"/>
       <c r="K544" s="5"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11">
       <c r="A545" s="10"/>
       <c r="B545" s="14"/>
       <c r="C545" s="5"/>
@@ -9930,7 +9950,7 @@
       <c r="J545" s="5"/>
       <c r="K545" s="5"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11">
       <c r="A546" s="10"/>
       <c r="B546" s="14"/>
       <c r="C546" s="5"/>
@@ -9942,7 +9962,7 @@
       <c r="J546" s="5"/>
       <c r="K546" s="5"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11">
       <c r="A547" s="10"/>
       <c r="B547" s="14"/>
       <c r="C547" s="5"/>
@@ -9954,7 +9974,7 @@
       <c r="J547" s="5"/>
       <c r="K547" s="5"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11">
       <c r="A548" s="10"/>
       <c r="B548" s="14"/>
       <c r="C548" s="5"/>
@@ -9966,7 +9986,7 @@
       <c r="J548" s="5"/>
       <c r="K548" s="5"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11">
       <c r="A549" s="10"/>
       <c r="B549" s="14"/>
       <c r="C549" s="5"/>
@@ -9978,7 +9998,7 @@
       <c r="J549" s="5"/>
       <c r="K549" s="5"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11">
       <c r="A550" s="10"/>
       <c r="B550" s="14"/>
       <c r="C550" s="5"/>
@@ -9990,7 +10010,7 @@
       <c r="J550" s="5"/>
       <c r="K550" s="5"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11">
       <c r="A551" s="10"/>
       <c r="B551" s="14"/>
       <c r="C551" s="5"/>
@@ -10002,7 +10022,7 @@
       <c r="J551" s="5"/>
       <c r="K551" s="5"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11">
       <c r="A552" s="10"/>
       <c r="B552" s="14"/>
       <c r="C552" s="5"/>
@@ -10014,7 +10034,7 @@
       <c r="J552" s="5"/>
       <c r="K552" s="5"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11">
       <c r="A553" s="10"/>
       <c r="B553" s="14"/>
       <c r="C553" s="5"/>
@@ -10026,7 +10046,7 @@
       <c r="J553" s="5"/>
       <c r="K553" s="5"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11">
       <c r="A554" s="10"/>
       <c r="B554" s="14"/>
       <c r="C554" s="5"/>
@@ -10038,7 +10058,7 @@
       <c r="J554" s="5"/>
       <c r="K554" s="5"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11">
       <c r="A555" s="10"/>
       <c r="B555" s="14"/>
       <c r="C555" s="5"/>
@@ -10050,7 +10070,7 @@
       <c r="J555" s="5"/>
       <c r="K555" s="5"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11">
       <c r="A556" s="10"/>
       <c r="B556" s="14"/>
       <c r="C556" s="5"/>
@@ -10062,7 +10082,7 @@
       <c r="J556" s="5"/>
       <c r="K556" s="5"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11">
       <c r="A557" s="10"/>
       <c r="B557" s="14"/>
       <c r="C557" s="5"/>
@@ -10074,7 +10094,7 @@
       <c r="J557" s="5"/>
       <c r="K557" s="5"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11">
       <c r="A558" s="10"/>
       <c r="B558" s="14"/>
       <c r="C558" s="5"/>
@@ -10086,7 +10106,7 @@
       <c r="J558" s="5"/>
       <c r="K558" s="5"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11">
       <c r="A559" s="10"/>
       <c r="B559" s="14"/>
       <c r="C559" s="5"/>
@@ -10098,7 +10118,7 @@
       <c r="J559" s="5"/>
       <c r="K559" s="5"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11">
       <c r="A560" s="10"/>
       <c r="B560" s="14"/>
       <c r="C560" s="5"/>
@@ -10110,7 +10130,7 @@
       <c r="J560" s="5"/>
       <c r="K560" s="5"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11">
       <c r="A561" s="10"/>
       <c r="B561" s="14"/>
       <c r="C561" s="5"/>
@@ -10122,7 +10142,7 @@
       <c r="J561" s="5"/>
       <c r="K561" s="5"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11">
       <c r="A562" s="10"/>
       <c r="B562" s="14"/>
       <c r="C562" s="5"/>
@@ -10134,7 +10154,7 @@
       <c r="J562" s="5"/>
       <c r="K562" s="5"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11">
       <c r="A563" s="10"/>
       <c r="B563" s="14"/>
       <c r="C563" s="5"/>
@@ -10146,7 +10166,7 @@
       <c r="J563" s="5"/>
       <c r="K563" s="5"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11">
       <c r="A564" s="10"/>
       <c r="B564" s="14"/>
       <c r="C564" s="5"/>
@@ -10158,7 +10178,7 @@
       <c r="J564" s="5"/>
       <c r="K564" s="5"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11">
       <c r="A565" s="10"/>
       <c r="B565" s="14"/>
       <c r="C565" s="5"/>
@@ -10170,7 +10190,7 @@
       <c r="J565" s="5"/>
       <c r="K565" s="5"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11">
       <c r="A566" s="10"/>
       <c r="B566" s="14"/>
       <c r="C566" s="5"/>
@@ -10182,7 +10202,7 @@
       <c r="J566" s="5"/>
       <c r="K566" s="5"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11">
       <c r="A567" s="10"/>
       <c r="B567" s="14"/>
       <c r="C567" s="5"/>
@@ -10194,7 +10214,7 @@
       <c r="J567" s="5"/>
       <c r="K567" s="5"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11">
       <c r="A568" s="10"/>
       <c r="B568" s="14"/>
       <c r="C568" s="5"/>
@@ -10206,7 +10226,7 @@
       <c r="J568" s="5"/>
       <c r="K568" s="5"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11">
       <c r="A569" s="10"/>
       <c r="B569" s="14"/>
       <c r="C569" s="5"/>
@@ -10218,7 +10238,7 @@
       <c r="J569" s="5"/>
       <c r="K569" s="5"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11">
       <c r="A570" s="10"/>
       <c r="B570" s="14"/>
       <c r="C570" s="5"/>
@@ -10230,7 +10250,7 @@
       <c r="J570" s="5"/>
       <c r="K570" s="5"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11">
       <c r="A571" s="10"/>
       <c r="B571" s="14"/>
       <c r="C571" s="5"/>
@@ -10242,7 +10262,7 @@
       <c r="J571" s="5"/>
       <c r="K571" s="5"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11">
       <c r="A572" s="10"/>
       <c r="B572" s="14"/>
       <c r="C572" s="5"/>
@@ -10254,7 +10274,7 @@
       <c r="J572" s="5"/>
       <c r="K572" s="5"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11">
       <c r="A573" s="10"/>
       <c r="B573" s="14"/>
       <c r="C573" s="5"/>
@@ -10266,7 +10286,7 @@
       <c r="J573" s="5"/>
       <c r="K573" s="5"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11">
       <c r="A574" s="10"/>
       <c r="B574" s="14"/>
       <c r="C574" s="5"/>
@@ -10278,7 +10298,7 @@
       <c r="J574" s="5"/>
       <c r="K574" s="5"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11">
       <c r="A575" s="10"/>
       <c r="B575" s="14"/>
       <c r="C575" s="5"/>
@@ -10290,7 +10310,7 @@
       <c r="J575" s="5"/>
       <c r="K575" s="5"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11">
       <c r="A576" s="10"/>
       <c r="B576" s="14"/>
       <c r="C576" s="5"/>
@@ -10302,7 +10322,7 @@
       <c r="J576" s="5"/>
       <c r="K576" s="5"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11">
       <c r="A577" s="10"/>
       <c r="B577" s="14"/>
       <c r="C577" s="5"/>
@@ -10314,7 +10334,7 @@
       <c r="J577" s="5"/>
       <c r="K577" s="5"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11">
       <c r="A578" s="10"/>
       <c r="B578" s="14"/>
       <c r="C578" s="5"/>
@@ -10326,7 +10346,7 @@
       <c r="J578" s="5"/>
       <c r="K578" s="5"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11">
       <c r="A579" s="10"/>
       <c r="B579" s="14"/>
       <c r="C579" s="5"/>
@@ -10338,7 +10358,7 @@
       <c r="J579" s="5"/>
       <c r="K579" s="5"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11">
       <c r="A580" s="10"/>
       <c r="B580" s="14"/>
       <c r="C580" s="5"/>
@@ -10350,7 +10370,7 @@
       <c r="J580" s="5"/>
       <c r="K580" s="5"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11">
       <c r="A581" s="10"/>
       <c r="B581" s="14"/>
       <c r="C581" s="5"/>
@@ -10362,7 +10382,7 @@
       <c r="J581" s="5"/>
       <c r="K581" s="5"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11">
       <c r="A582" s="10"/>
       <c r="B582" s="14"/>
       <c r="C582" s="5"/>
@@ -10374,7 +10394,7 @@
       <c r="J582" s="5"/>
       <c r="K582" s="5"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11">
       <c r="A583" s="10"/>
       <c r="B583" s="14"/>
       <c r="C583" s="5"/>
@@ -10386,7 +10406,7 @@
       <c r="J583" s="5"/>
       <c r="K583" s="5"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11">
       <c r="A584" s="10"/>
       <c r="B584" s="14"/>
       <c r="C584" s="5"/>
@@ -10398,7 +10418,7 @@
       <c r="J584" s="5"/>
       <c r="K584" s="5"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11">
       <c r="A585" s="10"/>
       <c r="B585" s="14"/>
       <c r="C585" s="5"/>
@@ -10410,7 +10430,7 @@
       <c r="J585" s="5"/>
       <c r="K585" s="5"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11">
       <c r="A586" s="10"/>
       <c r="B586" s="14"/>
       <c r="C586" s="5"/>
@@ -10422,7 +10442,7 @@
       <c r="J586" s="5"/>
       <c r="K586" s="5"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11">
       <c r="A587" s="10"/>
       <c r="B587" s="14"/>
       <c r="C587" s="5"/>
@@ -10434,7 +10454,7 @@
       <c r="J587" s="5"/>
       <c r="K587" s="5"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11">
       <c r="A588" s="10"/>
       <c r="B588" s="14"/>
       <c r="C588" s="5"/>
@@ -10446,7 +10466,7 @@
       <c r="J588" s="5"/>
       <c r="K588" s="5"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11">
       <c r="A589" s="10"/>
       <c r="B589" s="14"/>
       <c r="C589" s="5"/>
@@ -10458,7 +10478,7 @@
       <c r="J589" s="5"/>
       <c r="K589" s="5"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11">
       <c r="A590" s="10"/>
       <c r="B590" s="14"/>
       <c r="C590" s="5"/>
@@ -10470,7 +10490,7 @@
       <c r="J590" s="5"/>
       <c r="K590" s="5"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11">
       <c r="A591" s="10"/>
       <c r="B591" s="14"/>
       <c r="C591" s="5"/>
@@ -10482,7 +10502,7 @@
       <c r="J591" s="5"/>
       <c r="K591" s="5"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11">
       <c r="A592" s="10"/>
       <c r="B592" s="14"/>
       <c r="C592" s="5"/>
@@ -10494,7 +10514,7 @@
       <c r="J592" s="5"/>
       <c r="K592" s="5"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11">
       <c r="A593" s="10"/>
       <c r="B593" s="14"/>
       <c r="C593" s="5"/>
@@ -10506,7 +10526,7 @@
       <c r="J593" s="5"/>
       <c r="K593" s="5"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11">
       <c r="A594" s="10"/>
       <c r="B594" s="14"/>
       <c r="C594" s="5"/>
@@ -10518,7 +10538,7 @@
       <c r="J594" s="5"/>
       <c r="K594" s="5"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11">
       <c r="A595" s="10"/>
       <c r="B595" s="14"/>
       <c r="C595" s="5"/>
@@ -10530,7 +10550,7 @@
       <c r="J595" s="5"/>
       <c r="K595" s="5"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11">
       <c r="A596" s="10"/>
       <c r="B596" s="14"/>
       <c r="C596" s="5"/>
@@ -10542,7 +10562,7 @@
       <c r="J596" s="5"/>
       <c r="K596" s="5"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11">
       <c r="A597" s="10"/>
       <c r="B597" s="14"/>
       <c r="C597" s="5"/>
@@ -10554,7 +10574,7 @@
       <c r="J597" s="5"/>
       <c r="K597" s="5"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11">
       <c r="A598" s="10"/>
       <c r="B598" s="14"/>
       <c r="C598" s="5"/>
@@ -10566,7 +10586,7 @@
       <c r="J598" s="5"/>
       <c r="K598" s="5"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11">
       <c r="A599" s="10"/>
       <c r="B599" s="14"/>
       <c r="C599" s="5"/>
@@ -10578,7 +10598,7 @@
       <c r="J599" s="5"/>
       <c r="K599" s="5"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11">
       <c r="A600" s="10"/>
       <c r="B600" s="14"/>
       <c r="C600" s="5"/>
@@ -10590,7 +10610,7 @@
       <c r="J600" s="5"/>
       <c r="K600" s="5"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11">
       <c r="A601" s="10"/>
       <c r="B601" s="14"/>
       <c r="C601" s="5"/>
@@ -10602,7 +10622,7 @@
       <c r="J601" s="5"/>
       <c r="K601" s="5"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11">
       <c r="A602" s="10"/>
       <c r="B602" s="14"/>
       <c r="C602" s="5"/>
@@ -10614,7 +10634,7 @@
       <c r="J602" s="5"/>
       <c r="K602" s="5"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11">
       <c r="A603" s="10"/>
       <c r="B603" s="14"/>
       <c r="C603" s="5"/>
@@ -10626,7 +10646,7 @@
       <c r="J603" s="5"/>
       <c r="K603" s="5"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11">
       <c r="A604" s="10"/>
       <c r="B604" s="14"/>
       <c r="C604" s="5"/>
@@ -10638,7 +10658,7 @@
       <c r="J604" s="5"/>
       <c r="K604" s="5"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11">
       <c r="A605" s="10"/>
       <c r="B605" s="14"/>
       <c r="C605" s="5"/>
@@ -10650,7 +10670,7 @@
       <c r="J605" s="5"/>
       <c r="K605" s="5"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11">
       <c r="A606" s="10"/>
       <c r="B606" s="14"/>
       <c r="C606" s="5"/>
@@ -10662,7 +10682,7 @@
       <c r="J606" s="5"/>
       <c r="K606" s="5"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11">
       <c r="A607" s="10"/>
       <c r="B607" s="14"/>
       <c r="C607" s="5"/>
@@ -10674,7 +10694,7 @@
       <c r="J607" s="5"/>
       <c r="K607" s="5"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11">
       <c r="A608" s="10"/>
       <c r="B608" s="14"/>
       <c r="C608" s="5"/>
@@ -10686,7 +10706,7 @@
       <c r="J608" s="5"/>
       <c r="K608" s="5"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11">
       <c r="A609" s="10"/>
       <c r="B609" s="14"/>
       <c r="C609" s="5"/>
@@ -10698,7 +10718,7 @@
       <c r="J609" s="5"/>
       <c r="K609" s="5"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11">
       <c r="A610" s="10"/>
       <c r="B610" s="14"/>
       <c r="C610" s="5"/>
@@ -10710,7 +10730,7 @@
       <c r="J610" s="5"/>
       <c r="K610" s="5"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11">
       <c r="A611" s="10"/>
       <c r="B611" s="14"/>
       <c r="C611" s="5"/>
@@ -10722,7 +10742,7 @@
       <c r="J611" s="5"/>
       <c r="K611" s="5"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11">
       <c r="A612" s="10"/>
       <c r="B612" s="14"/>
       <c r="C612" s="5"/>
@@ -10734,7 +10754,7 @@
       <c r="J612" s="5"/>
       <c r="K612" s="5"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11">
       <c r="A613" s="10"/>
       <c r="B613" s="14"/>
       <c r="C613" s="5"/>
@@ -10746,7 +10766,7 @@
       <c r="J613" s="5"/>
       <c r="K613" s="5"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11">
       <c r="A614" s="10"/>
       <c r="B614" s="14"/>
       <c r="C614" s="5"/>
@@ -10758,7 +10778,7 @@
       <c r="J614" s="5"/>
       <c r="K614" s="5"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11">
       <c r="A615" s="10"/>
       <c r="B615" s="14"/>
       <c r="C615" s="5"/>
@@ -10770,7 +10790,7 @@
       <c r="J615" s="5"/>
       <c r="K615" s="5"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11">
       <c r="A616" s="10"/>
       <c r="B616" s="14"/>
       <c r="C616" s="5"/>
@@ -10782,7 +10802,7 @@
       <c r="J616" s="5"/>
       <c r="K616" s="5"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11">
       <c r="A617" s="10"/>
       <c r="B617" s="14"/>
       <c r="C617" s="5"/>
@@ -10794,7 +10814,7 @@
       <c r="J617" s="5"/>
       <c r="K617" s="5"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11">
       <c r="A618" s="10"/>
       <c r="B618" s="14"/>
       <c r="C618" s="5"/>
@@ -10806,7 +10826,7 @@
       <c r="J618" s="5"/>
       <c r="K618" s="5"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11">
       <c r="A619" s="10"/>
       <c r="B619" s="14"/>
       <c r="C619" s="5"/>
@@ -10818,7 +10838,7 @@
       <c r="J619" s="5"/>
       <c r="K619" s="5"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11">
       <c r="A620" s="10"/>
       <c r="B620" s="14"/>
       <c r="C620" s="5"/>
@@ -10830,7 +10850,7 @@
       <c r="J620" s="5"/>
       <c r="K620" s="5"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11">
       <c r="A621" s="10"/>
       <c r="B621" s="14"/>
       <c r="C621" s="5"/>
@@ -10842,7 +10862,7 @@
       <c r="J621" s="5"/>
       <c r="K621" s="5"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11">
       <c r="A622" s="10"/>
       <c r="B622" s="14"/>
       <c r="C622" s="5"/>
@@ -10854,7 +10874,7 @@
       <c r="J622" s="5"/>
       <c r="K622" s="5"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11">
       <c r="A623" s="10"/>
       <c r="B623" s="14"/>
       <c r="C623" s="5"/>
@@ -10866,7 +10886,7 @@
       <c r="J623" s="5"/>
       <c r="K623" s="5"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11">
       <c r="A624" s="10"/>
       <c r="B624" s="14"/>
       <c r="C624" s="5"/>
@@ -10878,7 +10898,7 @@
       <c r="J624" s="5"/>
       <c r="K624" s="5"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11">
       <c r="A625" s="10"/>
       <c r="B625" s="14"/>
       <c r="C625" s="5"/>
@@ -10890,7 +10910,7 @@
       <c r="J625" s="5"/>
       <c r="K625" s="5"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11">
       <c r="A626" s="10"/>
       <c r="B626" s="14"/>
       <c r="C626" s="5"/>
@@ -10902,7 +10922,7 @@
       <c r="J626" s="5"/>
       <c r="K626" s="5"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11">
       <c r="A627" s="10"/>
       <c r="B627" s="14"/>
       <c r="C627" s="5"/>
@@ -10914,7 +10934,7 @@
       <c r="J627" s="5"/>
       <c r="K627" s="5"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11">
       <c r="A628" s="10"/>
       <c r="B628" s="14"/>
       <c r="C628" s="5"/>
@@ -10926,7 +10946,7 @@
       <c r="J628" s="5"/>
       <c r="K628" s="5"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11">
       <c r="A629" s="10"/>
       <c r="B629" s="14"/>
       <c r="C629" s="5"/>
@@ -10938,7 +10958,7 @@
       <c r="J629" s="5"/>
       <c r="K629" s="5"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11">
       <c r="A630" s="10"/>
       <c r="B630" s="14"/>
       <c r="C630" s="5"/>
@@ -10950,7 +10970,7 @@
       <c r="J630" s="5"/>
       <c r="K630" s="5"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11">
       <c r="A631" s="10"/>
       <c r="B631" s="14"/>
       <c r="C631" s="5"/>
@@ -10962,7 +10982,7 @@
       <c r="J631" s="5"/>
       <c r="K631" s="5"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11">
       <c r="A632" s="10"/>
       <c r="B632" s="14"/>
       <c r="C632" s="5"/>
@@ -10974,7 +10994,7 @@
       <c r="J632" s="5"/>
       <c r="K632" s="5"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11">
       <c r="A633" s="10"/>
       <c r="B633" s="14"/>
       <c r="C633" s="5"/>
@@ -10986,7 +11006,7 @@
       <c r="J633" s="5"/>
       <c r="K633" s="5"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11">
       <c r="A634" s="10"/>
       <c r="B634" s="14"/>
       <c r="C634" s="5"/>
@@ -10998,7 +11018,7 @@
       <c r="J634" s="5"/>
       <c r="K634" s="5"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11">
       <c r="A635" s="10"/>
       <c r="B635" s="14"/>
       <c r="C635" s="5"/>
@@ -11010,7 +11030,7 @@
       <c r="J635" s="5"/>
       <c r="K635" s="5"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11">
       <c r="A636" s="10"/>
       <c r="B636" s="14"/>
       <c r="C636" s="5"/>
@@ -11022,7 +11042,7 @@
       <c r="J636" s="5"/>
       <c r="K636" s="5"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11">
       <c r="A637" s="10"/>
       <c r="B637" s="14"/>
       <c r="C637" s="5"/>
@@ -11034,7 +11054,7 @@
       <c r="J637" s="5"/>
       <c r="K637" s="5"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11">
       <c r="A638" s="10"/>
       <c r="B638" s="14"/>
       <c r="C638" s="5"/>
@@ -11046,7 +11066,7 @@
       <c r="J638" s="5"/>
       <c r="K638" s="5"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11">
       <c r="A639" s="10"/>
       <c r="B639" s="14"/>
       <c r="C639" s="5"/>
@@ -11058,7 +11078,7 @@
       <c r="J639" s="5"/>
       <c r="K639" s="5"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11">
       <c r="A640" s="10"/>
       <c r="B640" s="14"/>
       <c r="C640" s="5"/>
@@ -11070,7 +11090,7 @@
       <c r="J640" s="5"/>
       <c r="K640" s="5"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11">
       <c r="A641" s="10"/>
       <c r="B641" s="14"/>
       <c r="C641" s="5"/>
@@ -11082,7 +11102,7 @@
       <c r="J641" s="5"/>
       <c r="K641" s="5"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11">
       <c r="A642" s="10"/>
       <c r="B642" s="14"/>
       <c r="C642" s="5"/>
@@ -11094,7 +11114,7 @@
       <c r="J642" s="5"/>
       <c r="K642" s="5"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11">
       <c r="A643" s="10"/>
       <c r="B643" s="14"/>
       <c r="C643" s="5"/>
@@ -11106,7 +11126,7 @@
       <c r="J643" s="5"/>
       <c r="K643" s="5"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11">
       <c r="A644" s="10"/>
       <c r="B644" s="14"/>
       <c r="C644" s="5"/>
@@ -11118,7 +11138,7 @@
       <c r="J644" s="5"/>
       <c r="K644" s="5"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11">
       <c r="A645" s="10"/>
       <c r="B645" s="14"/>
       <c r="C645" s="5"/>
@@ -11130,7 +11150,7 @@
       <c r="J645" s="5"/>
       <c r="K645" s="5"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11">
       <c r="A646" s="10"/>
       <c r="B646" s="14"/>
       <c r="C646" s="5"/>
@@ -11142,7 +11162,7 @@
       <c r="J646" s="5"/>
       <c r="K646" s="5"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11">
       <c r="A647" s="10"/>
       <c r="B647" s="14"/>
       <c r="C647" s="5"/>
@@ -11154,7 +11174,7 @@
       <c r="J647" s="5"/>
       <c r="K647" s="5"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11">
       <c r="A648" s="10"/>
       <c r="B648" s="14"/>
       <c r="C648" s="5"/>
@@ -11166,7 +11186,7 @@
       <c r="J648" s="5"/>
       <c r="K648" s="5"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11">
       <c r="A649" s="10"/>
       <c r="B649" s="14"/>
       <c r="C649" s="5"/>
@@ -11178,7 +11198,7 @@
       <c r="J649" s="5"/>
       <c r="K649" s="5"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11">
       <c r="A650" s="10"/>
       <c r="B650" s="14"/>
       <c r="C650" s="5"/>
@@ -11190,7 +11210,7 @@
       <c r="J650" s="5"/>
       <c r="K650" s="5"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11">
       <c r="A651" s="10"/>
       <c r="B651" s="14"/>
       <c r="C651" s="5"/>
@@ -11202,7 +11222,7 @@
       <c r="J651" s="5"/>
       <c r="K651" s="5"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11">
       <c r="A652" s="10"/>
       <c r="B652" s="14"/>
       <c r="C652" s="5"/>
@@ -11214,7 +11234,7 @@
       <c r="J652" s="5"/>
       <c r="K652" s="5"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11">
       <c r="A653" s="10"/>
       <c r="B653" s="14"/>
       <c r="C653" s="5"/>
@@ -11226,7 +11246,7 @@
       <c r="J653" s="5"/>
       <c r="K653" s="5"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11">
       <c r="A654" s="10"/>
       <c r="B654" s="14"/>
       <c r="C654" s="5"/>
@@ -11238,7 +11258,7 @@
       <c r="J654" s="5"/>
       <c r="K654" s="5"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11">
       <c r="A655" s="10"/>
       <c r="B655" s="14"/>
       <c r="C655" s="5"/>
@@ -11250,7 +11270,7 @@
       <c r="J655" s="5"/>
       <c r="K655" s="5"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11">
       <c r="A656" s="10"/>
       <c r="B656" s="14"/>
       <c r="C656" s="5"/>
@@ -11262,7 +11282,7 @@
       <c r="J656" s="5"/>
       <c r="K656" s="5"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11">
       <c r="A657" s="10"/>
       <c r="B657" s="14"/>
       <c r="C657" s="5"/>
@@ -11274,7 +11294,7 @@
       <c r="J657" s="5"/>
       <c r="K657" s="5"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11">
       <c r="A658" s="10"/>
       <c r="B658" s="14"/>
       <c r="C658" s="5"/>
@@ -11286,7 +11306,7 @@
       <c r="J658" s="5"/>
       <c r="K658" s="5"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11">
       <c r="A659" s="10"/>
       <c r="B659" s="14"/>
       <c r="C659" s="5"/>
@@ -11298,7 +11318,7 @@
       <c r="J659" s="5"/>
       <c r="K659" s="5"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11">
       <c r="A660" s="10"/>
       <c r="B660" s="14"/>
       <c r="C660" s="5"/>
@@ -11310,7 +11330,7 @@
       <c r="J660" s="5"/>
       <c r="K660" s="5"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11">
       <c r="A661" s="10"/>
       <c r="B661" s="14"/>
       <c r="C661" s="5"/>
@@ -11322,7 +11342,7 @@
       <c r="J661" s="5"/>
       <c r="K661" s="5"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11">
       <c r="A662" s="10"/>
       <c r="B662" s="14"/>
       <c r="C662" s="5"/>
@@ -11334,7 +11354,7 @@
       <c r="J662" s="5"/>
       <c r="K662" s="5"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11">
       <c r="A663" s="10"/>
       <c r="B663" s="14"/>
       <c r="C663" s="5"/>
@@ -11346,7 +11366,7 @@
       <c r="J663" s="5"/>
       <c r="K663" s="5"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11">
       <c r="A664" s="10"/>
       <c r="B664" s="14"/>
       <c r="C664" s="5"/>
@@ -11358,7 +11378,7 @@
       <c r="J664" s="5"/>
       <c r="K664" s="5"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11">
       <c r="A665" s="10"/>
       <c r="B665" s="14"/>
       <c r="C665" s="5"/>
@@ -11370,7 +11390,7 @@
       <c r="J665" s="5"/>
       <c r="K665" s="5"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11">
       <c r="A666" s="10"/>
       <c r="B666" s="14"/>
       <c r="C666" s="5"/>
@@ -11382,7 +11402,7 @@
       <c r="J666" s="5"/>
       <c r="K666" s="5"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11">
       <c r="A667" s="10"/>
       <c r="B667" s="14"/>
       <c r="C667" s="5"/>
@@ -11394,7 +11414,7 @@
       <c r="J667" s="5"/>
       <c r="K667" s="5"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11">
       <c r="A668" s="10"/>
       <c r="B668" s="14"/>
       <c r="C668" s="5"/>
@@ -11406,7 +11426,7 @@
       <c r="J668" s="5"/>
       <c r="K668" s="5"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11">
       <c r="A669" s="10"/>
       <c r="B669" s="14"/>
       <c r="C669" s="5"/>
@@ -11418,7 +11438,7 @@
       <c r="J669" s="5"/>
       <c r="K669" s="5"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11">
       <c r="A670" s="10"/>
       <c r="B670" s="14"/>
       <c r="C670" s="5"/>
@@ -11430,7 +11450,7 @@
       <c r="J670" s="5"/>
       <c r="K670" s="5"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11">
       <c r="A671" s="10"/>
       <c r="B671" s="14"/>
       <c r="C671" s="5"/>
@@ -11442,7 +11462,7 @@
       <c r="J671" s="5"/>
       <c r="K671" s="5"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11">
       <c r="A672" s="10"/>
       <c r="B672" s="14"/>
       <c r="C672" s="5"/>
@@ -11454,7 +11474,7 @@
       <c r="J672" s="5"/>
       <c r="K672" s="5"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11">
       <c r="A673" s="10"/>
       <c r="B673" s="14"/>
       <c r="C673" s="5"/>
@@ -11466,7 +11486,7 @@
       <c r="J673" s="5"/>
       <c r="K673" s="5"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11">
       <c r="A674" s="10"/>
       <c r="B674" s="14"/>
       <c r="C674" s="5"/>
@@ -11478,7 +11498,7 @@
       <c r="J674" s="5"/>
       <c r="K674" s="5"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11">
       <c r="A675" s="10"/>
       <c r="B675" s="14"/>
       <c r="C675" s="5"/>
@@ -11490,7 +11510,7 @@
       <c r="J675" s="5"/>
       <c r="K675" s="5"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11">
       <c r="A676" s="10"/>
       <c r="B676" s="14"/>
       <c r="C676" s="5"/>
@@ -11502,7 +11522,7 @@
       <c r="J676" s="5"/>
       <c r="K676" s="5"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11">
       <c r="A677" s="10"/>
       <c r="B677" s="14"/>
       <c r="C677" s="5"/>
@@ -11514,7 +11534,7 @@
       <c r="J677" s="5"/>
       <c r="K677" s="5"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11">
       <c r="A678" s="10"/>
       <c r="B678" s="14"/>
       <c r="C678" s="5"/>
@@ -11526,7 +11546,7 @@
       <c r="J678" s="5"/>
       <c r="K678" s="5"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11">
       <c r="A679" s="10"/>
       <c r="B679" s="14"/>
       <c r="C679" s="5"/>
@@ -11538,7 +11558,7 @@
       <c r="J679" s="5"/>
       <c r="K679" s="5"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11">
       <c r="A680" s="10"/>
       <c r="B680" s="14"/>
       <c r="C680" s="5"/>
@@ -11550,7 +11570,7 @@
       <c r="J680" s="5"/>
       <c r="K680" s="5"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11">
       <c r="A681" s="10"/>
       <c r="B681" s="14"/>
       <c r="C681" s="5"/>
@@ -11562,7 +11582,7 @@
       <c r="J681" s="5"/>
       <c r="K681" s="5"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11">
       <c r="A682" s="10"/>
       <c r="B682" s="14"/>
       <c r="C682" s="5"/>
@@ -11574,7 +11594,7 @@
       <c r="J682" s="5"/>
       <c r="K682" s="5"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11">
       <c r="A683" s="10"/>
       <c r="B683" s="14"/>
       <c r="C683" s="5"/>
@@ -11586,7 +11606,7 @@
       <c r="J683" s="5"/>
       <c r="K683" s="5"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11">
       <c r="A684" s="10"/>
       <c r="B684" s="14"/>
       <c r="C684" s="5"/>
@@ -11598,7 +11618,7 @@
       <c r="J684" s="5"/>
       <c r="K684" s="5"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11">
       <c r="A685" s="10"/>
       <c r="B685" s="14"/>
       <c r="C685" s="5"/>
@@ -11610,7 +11630,7 @@
       <c r="J685" s="5"/>
       <c r="K685" s="5"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11">
       <c r="A686" s="10"/>
       <c r="B686" s="14"/>
       <c r="C686" s="5"/>
@@ -11622,7 +11642,7 @@
       <c r="J686" s="5"/>
       <c r="K686" s="5"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11">
       <c r="A687" s="10"/>
       <c r="B687" s="14"/>
       <c r="C687" s="5"/>
@@ -11634,7 +11654,7 @@
       <c r="J687" s="5"/>
       <c r="K687" s="5"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11">
       <c r="A688" s="10"/>
       <c r="B688" s="14"/>
       <c r="C688" s="5"/>
@@ -11646,7 +11666,7 @@
       <c r="J688" s="5"/>
       <c r="K688" s="5"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11">
       <c r="A689" s="10"/>
       <c r="B689" s="14"/>
       <c r="C689" s="5"/>
@@ -11658,7 +11678,7 @@
       <c r="J689" s="5"/>
       <c r="K689" s="5"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11">
       <c r="A690" s="10"/>
       <c r="B690" s="14"/>
       <c r="C690" s="5"/>
@@ -11670,7 +11690,7 @@
       <c r="J690" s="5"/>
       <c r="K690" s="5"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11">
       <c r="A691" s="10"/>
       <c r="B691" s="14"/>
       <c r="C691" s="5"/>
@@ -11682,7 +11702,7 @@
       <c r="J691" s="5"/>
       <c r="K691" s="5"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11">
       <c r="A692" s="10"/>
       <c r="B692" s="14"/>
       <c r="C692" s="5"/>
@@ -11694,7 +11714,7 @@
       <c r="J692" s="5"/>
       <c r="K692" s="5"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11">
       <c r="A693" s="10"/>
       <c r="B693" s="14"/>
       <c r="C693" s="5"/>
@@ -11706,7 +11726,7 @@
       <c r="J693" s="5"/>
       <c r="K693" s="5"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11">
       <c r="A694" s="10"/>
       <c r="B694" s="14"/>
       <c r="C694" s="5"/>
@@ -11718,7 +11738,7 @@
       <c r="J694" s="5"/>
       <c r="K694" s="5"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11">
       <c r="A695" s="10"/>
       <c r="B695" s="14"/>
       <c r="C695" s="5"/>
@@ -11730,7 +11750,7 @@
       <c r="J695" s="5"/>
       <c r="K695" s="5"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11">
       <c r="A696" s="10"/>
       <c r="B696" s="14"/>
       <c r="C696" s="5"/>
@@ -11742,7 +11762,7 @@
       <c r="J696" s="5"/>
       <c r="K696" s="5"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11">
       <c r="A697" s="10"/>
       <c r="B697" s="14"/>
       <c r="C697" s="5"/>
@@ -11754,7 +11774,7 @@
       <c r="J697" s="5"/>
       <c r="K697" s="5"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11">
       <c r="A698" s="10"/>
       <c r="B698" s="14"/>
       <c r="C698" s="5"/>
@@ -11766,7 +11786,7 @@
       <c r="J698" s="5"/>
       <c r="K698" s="5"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11">
       <c r="A699" s="10"/>
       <c r="B699" s="14"/>
       <c r="C699" s="5"/>
@@ -11778,7 +11798,7 @@
       <c r="J699" s="5"/>
       <c r="K699" s="5"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11">
       <c r="A700" s="10"/>
       <c r="B700" s="14"/>
       <c r="C700" s="5"/>
@@ -11790,7 +11810,7 @@
       <c r="J700" s="5"/>
       <c r="K700" s="5"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11">
       <c r="A701" s="10"/>
       <c r="B701" s="14"/>
       <c r="C701" s="5"/>
@@ -11802,7 +11822,7 @@
       <c r="J701" s="5"/>
       <c r="K701" s="5"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11">
       <c r="A702" s="10"/>
       <c r="B702" s="14"/>
       <c r="C702" s="5"/>
@@ -11814,7 +11834,7 @@
       <c r="J702" s="5"/>
       <c r="K702" s="5"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11">
       <c r="A703" s="10"/>
       <c r="B703" s="14"/>
       <c r="C703" s="5"/>
@@ -11826,7 +11846,7 @@
       <c r="J703" s="5"/>
       <c r="K703" s="5"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11">
       <c r="A704" s="10"/>
       <c r="B704" s="14"/>
       <c r="C704" s="5"/>
@@ -11838,7 +11858,7 @@
       <c r="J704" s="5"/>
       <c r="K704" s="5"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11">
       <c r="A705" s="10"/>
       <c r="B705" s="14"/>
       <c r="C705" s="5"/>
@@ -11850,7 +11870,7 @@
       <c r="J705" s="5"/>
       <c r="K705" s="5"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11">
       <c r="A706" s="10"/>
       <c r="B706" s="14"/>
       <c r="C706" s="5"/>
@@ -11862,7 +11882,7 @@
       <c r="J706" s="5"/>
       <c r="K706" s="5"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11">
       <c r="A707" s="10"/>
       <c r="B707" s="14"/>
       <c r="C707" s="5"/>
@@ -11874,7 +11894,7 @@
       <c r="J707" s="5"/>
       <c r="K707" s="5"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11">
       <c r="A708" s="10"/>
       <c r="B708" s="14"/>
       <c r="C708" s="5"/>
@@ -11886,7 +11906,7 @@
       <c r="J708" s="5"/>
       <c r="K708" s="5"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11">
       <c r="A709" s="10"/>
       <c r="B709" s="14"/>
       <c r="C709" s="5"/>
@@ -11898,7 +11918,7 @@
       <c r="J709" s="5"/>
       <c r="K709" s="5"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11">
       <c r="A710" s="10"/>
       <c r="B710" s="14"/>
       <c r="C710" s="5"/>
@@ -11910,7 +11930,7 @@
       <c r="J710" s="5"/>
       <c r="K710" s="5"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11">
       <c r="A711" s="10"/>
       <c r="B711" s="14"/>
       <c r="C711" s="5"/>
@@ -11922,7 +11942,7 @@
       <c r="J711" s="5"/>
       <c r="K711" s="5"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11">
       <c r="A712" s="10"/>
       <c r="B712" s="14"/>
       <c r="C712" s="5"/>
@@ -11934,7 +11954,7 @@
       <c r="J712" s="5"/>
       <c r="K712" s="5"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11">
       <c r="A713" s="10"/>
       <c r="B713" s="14"/>
       <c r="C713" s="5"/>
@@ -11946,7 +11966,7 @@
       <c r="J713" s="5"/>
       <c r="K713" s="5"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11">
       <c r="A714" s="10"/>
       <c r="B714" s="14"/>
       <c r="C714" s="5"/>
@@ -11958,7 +11978,7 @@
       <c r="J714" s="5"/>
       <c r="K714" s="5"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11">
       <c r="A715" s="10"/>
       <c r="B715" s="14"/>
       <c r="C715" s="5"/>
@@ -11970,7 +11990,7 @@
       <c r="J715" s="5"/>
       <c r="K715" s="5"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11">
       <c r="A716" s="10"/>
       <c r="B716" s="14"/>
       <c r="C716" s="5"/>
@@ -11982,7 +12002,7 @@
       <c r="J716" s="5"/>
       <c r="K716" s="5"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11">
       <c r="A717" s="10"/>
       <c r="B717" s="14"/>
       <c r="C717" s="5"/>
@@ -11994,7 +12014,7 @@
       <c r="J717" s="5"/>
       <c r="K717" s="5"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11">
       <c r="A718" s="10"/>
       <c r="B718" s="14"/>
       <c r="C718" s="5"/>
@@ -12006,7 +12026,7 @@
       <c r="J718" s="5"/>
       <c r="K718" s="5"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11">
       <c r="A719" s="10"/>
       <c r="B719" s="14"/>
       <c r="C719" s="5"/>
@@ -12018,7 +12038,7 @@
       <c r="J719" s="5"/>
       <c r="K719" s="5"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11">
       <c r="A720" s="10"/>
       <c r="B720" s="14"/>
       <c r="C720" s="5"/>
@@ -12030,7 +12050,7 @@
       <c r="J720" s="5"/>
       <c r="K720" s="5"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11">
       <c r="A721" s="10"/>
       <c r="B721" s="14"/>
       <c r="C721" s="5"/>
@@ -12042,7 +12062,7 @@
       <c r="J721" s="5"/>
       <c r="K721" s="5"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11">
       <c r="A722" s="10"/>
       <c r="B722" s="14"/>
       <c r="C722" s="5"/>
@@ -12054,7 +12074,7 @@
       <c r="J722" s="5"/>
       <c r="K722" s="5"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11">
       <c r="A723" s="10"/>
       <c r="B723" s="14"/>
       <c r="C723" s="5"/>
@@ -12066,7 +12086,7 @@
       <c r="J723" s="5"/>
       <c r="K723" s="5"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11">
       <c r="A724" s="10"/>
       <c r="B724" s="14"/>
       <c r="C724" s="5"/>
@@ -12078,7 +12098,7 @@
       <c r="J724" s="5"/>
       <c r="K724" s="5"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11">
       <c r="A725" s="10"/>
       <c r="B725" s="14"/>
       <c r="C725" s="5"/>
@@ -12090,7 +12110,7 @@
       <c r="J725" s="5"/>
       <c r="K725" s="5"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11">
       <c r="A726" s="10"/>
       <c r="B726" s="14"/>
       <c r="C726" s="5"/>
@@ -12102,7 +12122,7 @@
       <c r="J726" s="5"/>
       <c r="K726" s="5"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11">
       <c r="A727" s="10"/>
       <c r="B727" s="14"/>
       <c r="C727" s="5"/>
@@ -12114,7 +12134,7 @@
       <c r="J727" s="5"/>
       <c r="K727" s="5"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11">
       <c r="A728" s="10"/>
       <c r="B728" s="14"/>
       <c r="C728" s="5"/>
@@ -12126,7 +12146,7 @@
       <c r="J728" s="5"/>
       <c r="K728" s="5"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11">
       <c r="A729" s="10"/>
       <c r="B729" s="14"/>
       <c r="C729" s="5"/>
@@ -12138,7 +12158,7 @@
       <c r="J729" s="5"/>
       <c r="K729" s="5"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11">
       <c r="A730" s="10"/>
       <c r="B730" s="14"/>
       <c r="C730" s="5"/>
@@ -12150,7 +12170,7 @@
       <c r="J730" s="5"/>
       <c r="K730" s="5"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11">
       <c r="A731" s="10"/>
       <c r="B731" s="14"/>
       <c r="C731" s="5"/>
@@ -12162,7 +12182,7 @@
       <c r="J731" s="5"/>
       <c r="K731" s="5"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11">
       <c r="A732" s="10"/>
       <c r="B732" s="14"/>
       <c r="C732" s="5"/>
@@ -12174,7 +12194,7 @@
       <c r="J732" s="5"/>
       <c r="K732" s="5"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11">
       <c r="A733" s="10"/>
       <c r="B733" s="14"/>
       <c r="C733" s="5"/>
@@ -12186,7 +12206,7 @@
       <c r="J733" s="5"/>
       <c r="K733" s="5"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11">
       <c r="A734" s="10"/>
       <c r="B734" s="14"/>
       <c r="C734" s="5"/>
@@ -12198,7 +12218,7 @@
       <c r="J734" s="5"/>
       <c r="K734" s="5"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11">
       <c r="A735" s="10"/>
       <c r="B735" s="14"/>
       <c r="C735" s="5"/>
@@ -12210,7 +12230,7 @@
       <c r="J735" s="5"/>
       <c r="K735" s="5"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11">
       <c r="A736" s="10"/>
       <c r="B736" s="14"/>
       <c r="C736" s="5"/>
@@ -12222,7 +12242,7 @@
       <c r="J736" s="5"/>
       <c r="K736" s="5"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11">
       <c r="A737" s="10"/>
       <c r="B737" s="14"/>
       <c r="C737" s="5"/>
@@ -12234,7 +12254,7 @@
       <c r="J737" s="5"/>
       <c r="K737" s="5"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11">
       <c r="A738" s="10"/>
       <c r="B738" s="14"/>
       <c r="C738" s="5"/>
@@ -12246,7 +12266,7 @@
       <c r="J738" s="5"/>
       <c r="K738" s="5"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11">
       <c r="A739" s="10"/>
       <c r="B739" s="14"/>
       <c r="C739" s="5"/>
@@ -12258,7 +12278,7 @@
       <c r="J739" s="5"/>
       <c r="K739" s="5"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11">
       <c r="A740" s="10"/>
       <c r="B740" s="14"/>
       <c r="C740" s="5"/>
@@ -12270,7 +12290,7 @@
       <c r="J740" s="5"/>
       <c r="K740" s="5"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11">
       <c r="A741" s="10"/>
       <c r="B741" s="14"/>
       <c r="C741" s="5"/>
@@ -12282,7 +12302,7 @@
       <c r="J741" s="5"/>
       <c r="K741" s="5"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11">
       <c r="A742" s="10"/>
       <c r="B742" s="14"/>
       <c r="C742" s="5"/>
@@ -12294,7 +12314,7 @@
       <c r="J742" s="5"/>
       <c r="K742" s="5"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11">
       <c r="A743" s="10"/>
       <c r="B743" s="14"/>
       <c r="C743" s="5"/>
@@ -12306,7 +12326,7 @@
       <c r="J743" s="5"/>
       <c r="K743" s="5"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11">
       <c r="A744" s="10"/>
       <c r="B744" s="14"/>
       <c r="C744" s="5"/>
@@ -12318,7 +12338,7 @@
       <c r="J744" s="5"/>
       <c r="K744" s="5"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11">
       <c r="A745" s="10"/>
       <c r="B745" s="14"/>
       <c r="C745" s="5"/>
@@ -12330,7 +12350,7 @@
       <c r="J745" s="5"/>
       <c r="K745" s="5"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11">
       <c r="A746" s="10"/>
       <c r="B746" s="14"/>
       <c r="C746" s="5"/>
@@ -12342,7 +12362,7 @@
       <c r="J746" s="5"/>
       <c r="K746" s="5"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11">
       <c r="A747" s="10"/>
       <c r="B747" s="14"/>
       <c r="C747" s="5"/>
@@ -12354,7 +12374,7 @@
       <c r="J747" s="5"/>
       <c r="K747" s="5"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11">
       <c r="A748" s="10"/>
       <c r="B748" s="14"/>
       <c r="C748" s="5"/>
@@ -12366,7 +12386,7 @@
       <c r="J748" s="5"/>
       <c r="K748" s="5"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11">
       <c r="A749" s="10"/>
       <c r="B749" s="14"/>
       <c r="C749" s="5"/>
@@ -12378,7 +12398,7 @@
       <c r="J749" s="5"/>
       <c r="K749" s="5"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11">
       <c r="A750" s="10"/>
       <c r="B750" s="14"/>
       <c r="C750" s="5"/>
@@ -12390,7 +12410,7 @@
       <c r="J750" s="5"/>
       <c r="K750" s="5"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11">
       <c r="A751" s="10"/>
       <c r="B751" s="14"/>
       <c r="C751" s="5"/>
@@ -12402,7 +12422,7 @@
       <c r="J751" s="5"/>
       <c r="K751" s="5"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11">
       <c r="A752" s="10"/>
       <c r="B752" s="14"/>
       <c r="C752" s="5"/>
@@ -12414,7 +12434,7 @@
       <c r="J752" s="5"/>
       <c r="K752" s="5"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11">
       <c r="A753" s="10"/>
       <c r="B753" s="14"/>
       <c r="C753" s="5"/>
@@ -12426,7 +12446,7 @@
       <c r="J753" s="5"/>
       <c r="K753" s="5"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11">
       <c r="A754" s="10"/>
       <c r="B754" s="14"/>
       <c r="C754" s="5"/>
@@ -12438,7 +12458,7 @@
       <c r="J754" s="5"/>
       <c r="K754" s="5"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11">
       <c r="A755" s="10"/>
       <c r="B755" s="14"/>
       <c r="C755" s="5"/>
@@ -12450,7 +12470,7 @@
       <c r="J755" s="5"/>
       <c r="K755" s="5"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11">
       <c r="A756" s="10"/>
       <c r="B756" s="14"/>
       <c r="C756" s="5"/>
@@ -12462,7 +12482,7 @@
       <c r="J756" s="5"/>
       <c r="K756" s="5"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11">
       <c r="A757" s="10"/>
       <c r="B757" s="14"/>
       <c r="C757" s="5"/>
@@ -12474,7 +12494,7 @@
       <c r="J757" s="5"/>
       <c r="K757" s="5"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11">
       <c r="A758" s="10"/>
       <c r="B758" s="14"/>
       <c r="C758" s="5"/>
@@ -12486,7 +12506,7 @@
       <c r="J758" s="5"/>
       <c r="K758" s="5"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11">
       <c r="A759" s="10"/>
       <c r="B759" s="14"/>
       <c r="C759" s="5"/>
@@ -12498,7 +12518,7 @@
       <c r="J759" s="5"/>
       <c r="K759" s="5"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11">
       <c r="A760" s="10"/>
       <c r="B760" s="14"/>
       <c r="C760" s="5"/>
@@ -12510,7 +12530,7 @@
       <c r="J760" s="5"/>
       <c r="K760" s="5"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11">
       <c r="A761" s="10"/>
       <c r="B761" s="14"/>
       <c r="C761" s="5"/>
@@ -12522,7 +12542,7 @@
       <c r="J761" s="5"/>
       <c r="K761" s="5"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11">
       <c r="A762" s="10"/>
       <c r="B762" s="14"/>
       <c r="C762" s="5"/>
@@ -12534,7 +12554,7 @@
       <c r="J762" s="5"/>
       <c r="K762" s="5"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11">
       <c r="A763" s="10"/>
       <c r="B763" s="14"/>
       <c r="C763" s="5"/>
@@ -12546,7 +12566,7 @@
       <c r="J763" s="5"/>
       <c r="K763" s="5"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11">
       <c r="A764" s="10"/>
       <c r="B764" s="14"/>
       <c r="C764" s="5"/>
@@ -12558,7 +12578,7 @@
       <c r="J764" s="5"/>
       <c r="K764" s="5"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11">
       <c r="A765" s="10"/>
       <c r="B765" s="14"/>
       <c r="C765" s="5"/>
@@ -12570,7 +12590,7 @@
       <c r="J765" s="5"/>
       <c r="K765" s="5"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11">
       <c r="A766" s="10"/>
       <c r="B766" s="14"/>
       <c r="C766" s="5"/>
@@ -12582,7 +12602,7 @@
       <c r="J766" s="5"/>
       <c r="K766" s="5"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11">
       <c r="A767" s="10"/>
       <c r="B767" s="14"/>
       <c r="C767" s="5"/>
@@ -12594,7 +12614,7 @@
       <c r="J767" s="5"/>
       <c r="K767" s="5"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11">
       <c r="A768" s="10"/>
       <c r="B768" s="14"/>
       <c r="C768" s="5"/>
@@ -12606,7 +12626,7 @@
       <c r="J768" s="5"/>
       <c r="K768" s="5"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11">
       <c r="A769" s="10"/>
       <c r="B769" s="14"/>
       <c r="C769" s="5"/>
@@ -12618,7 +12638,7 @@
       <c r="J769" s="5"/>
       <c r="K769" s="5"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11">
       <c r="A770" s="10"/>
       <c r="B770" s="14"/>
       <c r="C770" s="5"/>
@@ -12630,7 +12650,7 @@
       <c r="J770" s="5"/>
       <c r="K770" s="5"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11">
       <c r="A771" s="10"/>
       <c r="B771" s="14"/>
       <c r="C771" s="5"/>
@@ -12642,7 +12662,7 @@
       <c r="J771" s="5"/>
       <c r="K771" s="5"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11">
       <c r="A772" s="10"/>
       <c r="B772" s="14"/>
       <c r="C772" s="5"/>
@@ -12654,7 +12674,7 @@
       <c r="J772" s="5"/>
       <c r="K772" s="5"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11">
       <c r="A773" s="10"/>
       <c r="B773" s="14"/>
       <c r="C773" s="5"/>
@@ -12666,7 +12686,7 @@
       <c r="J773" s="5"/>
       <c r="K773" s="5"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11">
       <c r="A774" s="10"/>
       <c r="B774" s="14"/>
       <c r="C774" s="5"/>
@@ -12678,7 +12698,7 @@
       <c r="J774" s="5"/>
       <c r="K774" s="5"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11">
       <c r="A775" s="10"/>
       <c r="B775" s="14"/>
       <c r="C775" s="5"/>
@@ -12690,7 +12710,7 @@
       <c r="J775" s="5"/>
       <c r="K775" s="5"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11">
       <c r="A776" s="10"/>
       <c r="B776" s="14"/>
       <c r="C776" s="5"/>
@@ -12702,7 +12722,7 @@
       <c r="J776" s="5"/>
       <c r="K776" s="5"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11">
       <c r="A777" s="10"/>
       <c r="B777" s="14"/>
       <c r="C777" s="5"/>
@@ -12714,7 +12734,7 @@
       <c r="J777" s="5"/>
       <c r="K777" s="5"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11">
       <c r="A778" s="10"/>
       <c r="B778" s="14"/>
       <c r="C778" s="5"/>
@@ -12726,7 +12746,7 @@
       <c r="J778" s="5"/>
       <c r="K778" s="5"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11">
       <c r="A779" s="10"/>
       <c r="B779" s="14"/>
       <c r="C779" s="5"/>
@@ -12738,7 +12758,7 @@
       <c r="J779" s="5"/>
       <c r="K779" s="5"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11">
       <c r="A780" s="10"/>
       <c r="B780" s="14"/>
       <c r="C780" s="5"/>
@@ -12750,7 +12770,7 @@
       <c r="J780" s="5"/>
       <c r="K780" s="5"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11">
       <c r="A781" s="10"/>
       <c r="B781" s="14"/>
       <c r="C781" s="5"/>
@@ -12762,7 +12782,7 @@
       <c r="J781" s="5"/>
       <c r="K781" s="5"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11">
       <c r="A782" s="10"/>
       <c r="B782" s="14"/>
       <c r="C782" s="5"/>
@@ -12774,7 +12794,7 @@
       <c r="J782" s="5"/>
       <c r="K782" s="5"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11">
       <c r="A783" s="10"/>
       <c r="B783" s="14"/>
       <c r="C783" s="5"/>
@@ -12786,7 +12806,7 @@
       <c r="J783" s="5"/>
       <c r="K783" s="5"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11">
       <c r="A784" s="10"/>
       <c r="B784" s="14"/>
       <c r="C784" s="5"/>
@@ -12798,7 +12818,7 @@
       <c r="J784" s="5"/>
       <c r="K784" s="5"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11">
       <c r="A785" s="10"/>
       <c r="B785" s="14"/>
       <c r="C785" s="5"/>
@@ -12810,7 +12830,7 @@
       <c r="J785" s="5"/>
       <c r="K785" s="5"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11">
       <c r="A786" s="10"/>
       <c r="B786" s="14"/>
       <c r="C786" s="5"/>
@@ -12822,7 +12842,7 @@
       <c r="J786" s="5"/>
       <c r="K786" s="5"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11">
       <c r="A787" s="10"/>
       <c r="B787" s="14"/>
       <c r="C787" s="5"/>
@@ -12834,7 +12854,7 @@
       <c r="J787" s="5"/>
       <c r="K787" s="5"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11">
       <c r="A788" s="10"/>
       <c r="B788" s="14"/>
       <c r="C788" s="5"/>
@@ -12846,7 +12866,7 @@
       <c r="J788" s="5"/>
       <c r="K788" s="5"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11">
       <c r="A789" s="10"/>
       <c r="B789" s="14"/>
       <c r="C789" s="5"/>
@@ -12858,7 +12878,7 @@
       <c r="J789" s="5"/>
       <c r="K789" s="5"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11">
       <c r="A790" s="10"/>
       <c r="B790" s="14"/>
       <c r="C790" s="5"/>
@@ -12870,7 +12890,7 @@
       <c r="J790" s="5"/>
       <c r="K790" s="5"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11">
       <c r="A791" s="10"/>
       <c r="B791" s="14"/>
       <c r="C791" s="5"/>
@@ -12882,7 +12902,7 @@
       <c r="J791" s="5"/>
       <c r="K791" s="5"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11">
       <c r="A792" s="10"/>
       <c r="B792" s="14"/>
       <c r="C792" s="5"/>
@@ -12894,7 +12914,7 @@
       <c r="J792" s="5"/>
       <c r="K792" s="5"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11">
       <c r="A793" s="10"/>
       <c r="B793" s="14"/>
       <c r="C793" s="5"/>
@@ -12906,7 +12926,7 @@
       <c r="J793" s="5"/>
       <c r="K793" s="5"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11">
       <c r="A794" s="10"/>
       <c r="B794" s="14"/>
       <c r="C794" s="5"/>
@@ -12918,7 +12938,7 @@
       <c r="J794" s="5"/>
       <c r="K794" s="5"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11">
       <c r="A795" s="10"/>
       <c r="B795" s="14"/>
       <c r="C795" s="5"/>
@@ -12930,7 +12950,7 @@
       <c r="J795" s="5"/>
       <c r="K795" s="5"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11">
       <c r="A796" s="10"/>
       <c r="B796" s="14"/>
       <c r="C796" s="5"/>
@@ -12942,7 +12962,7 @@
       <c r="J796" s="5"/>
       <c r="K796" s="5"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11">
       <c r="A797" s="10"/>
       <c r="B797" s="14"/>
       <c r="C797" s="5"/>
@@ -12954,7 +12974,7 @@
       <c r="J797" s="5"/>
       <c r="K797" s="5"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11">
       <c r="A798" s="10"/>
       <c r="B798" s="14"/>
       <c r="C798" s="5"/>
@@ -12966,7 +12986,7 @@
       <c r="J798" s="5"/>
       <c r="K798" s="5"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11">
       <c r="A799" s="10"/>
       <c r="B799" s="14"/>
       <c r="C799" s="5"/>
@@ -12978,7 +12998,7 @@
       <c r="J799" s="5"/>
       <c r="K799" s="5"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11">
       <c r="A800" s="10"/>
       <c r="B800" s="14"/>
       <c r="C800" s="5"/>
@@ -12990,7 +13010,7 @@
       <c r="J800" s="5"/>
       <c r="K800" s="5"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11">
       <c r="A801" s="10"/>
       <c r="B801" s="14"/>
       <c r="C801" s="5"/>
@@ -13002,7 +13022,7 @@
       <c r="J801" s="5"/>
       <c r="K801" s="5"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11">
       <c r="A802" s="10"/>
       <c r="B802" s="14"/>
       <c r="C802" s="5"/>
@@ -13014,7 +13034,7 @@
       <c r="J802" s="5"/>
       <c r="K802" s="5"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11">
       <c r="A803" s="10"/>
       <c r="B803" s="14"/>
       <c r="C803" s="5"/>
@@ -13026,7 +13046,7 @@
       <c r="J803" s="5"/>
       <c r="K803" s="5"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11">
       <c r="A804" s="10"/>
       <c r="B804" s="14"/>
       <c r="C804" s="5"/>
@@ -13038,7 +13058,7 @@
       <c r="J804" s="5"/>
       <c r="K804" s="5"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11">
       <c r="A805" s="10"/>
       <c r="B805" s="14"/>
       <c r="C805" s="5"/>
@@ -13050,7 +13070,7 @@
       <c r="J805" s="5"/>
       <c r="K805" s="5"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11">
       <c r="A806" s="10"/>
       <c r="B806" s="14"/>
       <c r="C806" s="5"/>
@@ -13062,7 +13082,7 @@
       <c r="J806" s="5"/>
       <c r="K806" s="5"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11">
       <c r="A807" s="10"/>
       <c r="B807" s="14"/>
       <c r="C807" s="5"/>
@@ -13074,7 +13094,7 @@
       <c r="J807" s="5"/>
       <c r="K807" s="5"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11">
       <c r="A808" s="10"/>
       <c r="B808" s="14"/>
       <c r="C808" s="5"/>
@@ -13086,7 +13106,7 @@
       <c r="J808" s="5"/>
       <c r="K808" s="5"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11">
       <c r="A809" s="10"/>
       <c r="B809" s="14"/>
       <c r="C809" s="5"/>
@@ -13098,7 +13118,7 @@
       <c r="J809" s="5"/>
       <c r="K809" s="5"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11">
       <c r="A810" s="10"/>
       <c r="B810" s="14"/>
       <c r="C810" s="5"/>
@@ -13110,7 +13130,7 @@
       <c r="J810" s="5"/>
       <c r="K810" s="5"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11">
       <c r="A811" s="10"/>
       <c r="B811" s="14"/>
       <c r="C811" s="5"/>
@@ -13122,7 +13142,7 @@
       <c r="J811" s="5"/>
       <c r="K811" s="5"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11">
       <c r="A812" s="10"/>
       <c r="B812" s="14"/>
       <c r="C812" s="5"/>
@@ -13134,7 +13154,7 @@
       <c r="J812" s="5"/>
       <c r="K812" s="5"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11">
       <c r="A813" s="10"/>
       <c r="B813" s="14"/>
       <c r="C813" s="5"/>
@@ -13146,7 +13166,7 @@
       <c r="J813" s="5"/>
       <c r="K813" s="5"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11">
       <c r="A814" s="10"/>
       <c r="B814" s="14"/>
       <c r="C814" s="5"/>
@@ -13158,7 +13178,7 @@
       <c r="J814" s="5"/>
       <c r="K814" s="5"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11">
       <c r="A815" s="10"/>
       <c r="B815" s="14"/>
       <c r="C815" s="5"/>
@@ -13170,7 +13190,7 @@
       <c r="J815" s="5"/>
       <c r="K815" s="5"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11">
       <c r="A816" s="10"/>
       <c r="B816" s="14"/>
       <c r="C816" s="5"/>
@@ -13182,7 +13202,7 @@
       <c r="J816" s="5"/>
       <c r="K816" s="5"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11">
       <c r="A817" s="10"/>
       <c r="B817" s="14"/>
       <c r="C817" s="5"/>
@@ -13194,7 +13214,7 @@
       <c r="J817" s="5"/>
       <c r="K817" s="5"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11">
       <c r="A818" s="10"/>
       <c r="B818" s="14"/>
       <c r="C818" s="5"/>
@@ -13206,7 +13226,7 @@
       <c r="J818" s="5"/>
       <c r="K818" s="5"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11">
       <c r="A819" s="10"/>
       <c r="B819" s="14"/>
       <c r="C819" s="5"/>
@@ -13218,7 +13238,7 @@
       <c r="J819" s="5"/>
       <c r="K819" s="5"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11">
       <c r="A820" s="10"/>
       <c r="B820" s="14"/>
       <c r="C820" s="5"/>
@@ -13230,7 +13250,7 @@
       <c r="J820" s="5"/>
       <c r="K820" s="5"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11">
       <c r="A821" s="10"/>
       <c r="B821" s="14"/>
       <c r="C821" s="5"/>
@@ -13242,7 +13262,7 @@
       <c r="J821" s="5"/>
       <c r="K821" s="5"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11">
       <c r="A822" s="10"/>
       <c r="B822" s="14"/>
       <c r="C822" s="5"/>
@@ -13254,7 +13274,7 @@
       <c r="J822" s="5"/>
       <c r="K822" s="5"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11">
       <c r="A823" s="10"/>
       <c r="B823" s="14"/>
       <c r="C823" s="5"/>
@@ -13266,7 +13286,7 @@
       <c r="J823" s="5"/>
       <c r="K823" s="5"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11">
       <c r="A824" s="10"/>
       <c r="B824" s="14"/>
       <c r="C824" s="5"/>
@@ -13278,7 +13298,7 @@
       <c r="J824" s="5"/>
       <c r="K824" s="5"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11">
       <c r="A825" s="10"/>
       <c r="B825" s="14"/>
       <c r="C825" s="5"/>
@@ -13290,7 +13310,7 @@
       <c r="J825" s="5"/>
       <c r="K825" s="5"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11">
       <c r="A826" s="10"/>
       <c r="B826" s="14"/>
       <c r="C826" s="5"/>
@@ -13302,7 +13322,7 @@
       <c r="J826" s="5"/>
       <c r="K826" s="5"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11">
       <c r="A827" s="10"/>
       <c r="B827" s="14"/>
       <c r="C827" s="5"/>
@@ -13314,7 +13334,7 @@
       <c r="J827" s="5"/>
       <c r="K827" s="5"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11">
       <c r="A828" s="10"/>
       <c r="B828" s="14"/>
       <c r="C828" s="5"/>
@@ -13326,7 +13346,7 @@
       <c r="J828" s="5"/>
       <c r="K828" s="5"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11">
       <c r="A829" s="10"/>
       <c r="B829" s="14"/>
       <c r="C829" s="5"/>
@@ -13338,7 +13358,7 @@
       <c r="J829" s="5"/>
       <c r="K829" s="5"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11">
       <c r="A830" s="10"/>
       <c r="B830" s="14"/>
       <c r="C830" s="5"/>
@@ -13350,7 +13370,7 @@
       <c r="J830" s="5"/>
       <c r="K830" s="5"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11">
       <c r="A831" s="10"/>
       <c r="B831" s="14"/>
       <c r="C831" s="5"/>
@@ -13362,7 +13382,7 @@
       <c r="J831" s="5"/>
       <c r="K831" s="5"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11">
       <c r="A832" s="10"/>
       <c r="B832" s="14"/>
       <c r="C832" s="5"/>
@@ -13374,7 +13394,7 @@
       <c r="J832" s="5"/>
       <c r="K832" s="5"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11">
       <c r="A833" s="10"/>
       <c r="B833" s="14"/>
       <c r="C833" s="5"/>
@@ -13386,7 +13406,7 @@
       <c r="J833" s="5"/>
       <c r="K833" s="5"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11">
       <c r="A834" s="10"/>
       <c r="B834" s="14"/>
       <c r="C834" s="5"/>
@@ -13398,7 +13418,7 @@
       <c r="J834" s="5"/>
       <c r="K834" s="5"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11">
       <c r="A835" s="10"/>
       <c r="B835" s="14"/>
       <c r="C835" s="5"/>
@@ -13410,7 +13430,7 @@
       <c r="J835" s="5"/>
       <c r="K835" s="5"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11">
       <c r="A836" s="10"/>
       <c r="B836" s="14"/>
       <c r="C836" s="5"/>
@@ -13422,7 +13442,7 @@
       <c r="J836" s="5"/>
       <c r="K836" s="5"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11">
       <c r="A837" s="10"/>
       <c r="B837" s="14"/>
       <c r="C837" s="5"/>
@@ -13434,7 +13454,7 @@
       <c r="J837" s="5"/>
       <c r="K837" s="5"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11">
       <c r="A838" s="10"/>
       <c r="B838" s="14"/>
       <c r="C838" s="5"/>
@@ -13446,7 +13466,7 @@
       <c r="J838" s="5"/>
       <c r="K838" s="5"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11">
       <c r="A839" s="10"/>
       <c r="B839" s="14"/>
       <c r="C839" s="5"/>
@@ -13458,7 +13478,7 @@
       <c r="J839" s="5"/>
       <c r="K839" s="5"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11">
       <c r="A840" s="10"/>
       <c r="B840" s="14"/>
       <c r="C840" s="5"/>
@@ -13470,7 +13490,7 @@
       <c r="J840" s="5"/>
       <c r="K840" s="5"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11">
       <c r="A841" s="10"/>
       <c r="B841" s="14"/>
       <c r="C841" s="5"/>
@@ -13482,7 +13502,7 @@
       <c r="J841" s="5"/>
       <c r="K841" s="5"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11">
       <c r="A842" s="10"/>
       <c r="B842" s="14"/>
       <c r="C842" s="5"/>
@@ -13494,7 +13514,7 @@
       <c r="J842" s="5"/>
       <c r="K842" s="5"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11">
       <c r="A843" s="10"/>
       <c r="B843" s="14"/>
       <c r="C843" s="5"/>
@@ -13506,7 +13526,7 @@
       <c r="J843" s="5"/>
       <c r="K843" s="5"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11">
       <c r="A844" s="10"/>
       <c r="B844" s="14"/>
       <c r="C844" s="5"/>
@@ -13518,7 +13538,7 @@
       <c r="J844" s="5"/>
       <c r="K844" s="5"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11">
       <c r="A845" s="10"/>
       <c r="B845" s="14"/>
       <c r="C845" s="5"/>
@@ -13530,7 +13550,7 @@
       <c r="J845" s="5"/>
       <c r="K845" s="5"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11">
       <c r="A846" s="10"/>
       <c r="B846" s="14"/>
       <c r="C846" s="5"/>
@@ -13542,7 +13562,7 @@
       <c r="J846" s="5"/>
       <c r="K846" s="5"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11">
       <c r="A847" s="10"/>
       <c r="B847" s="14"/>
       <c r="C847" s="5"/>
@@ -13554,7 +13574,7 @@
       <c r="J847" s="5"/>
       <c r="K847" s="5"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11">
       <c r="A848" s="10"/>
       <c r="B848" s="14"/>
       <c r="C848" s="5"/>
@@ -13566,7 +13586,7 @@
       <c r="J848" s="5"/>
       <c r="K848" s="5"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11">
       <c r="A849" s="10"/>
       <c r="B849" s="14"/>
       <c r="C849" s="5"/>
@@ -13578,7 +13598,7 @@
       <c r="J849" s="5"/>
       <c r="K849" s="5"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11">
       <c r="A850" s="10"/>
       <c r="B850" s="14"/>
       <c r="C850" s="5"/>
@@ -13590,7 +13610,7 @@
       <c r="J850" s="5"/>
       <c r="K850" s="5"/>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11">
       <c r="A851" s="10"/>
       <c r="B851" s="14"/>
       <c r="C851" s="5"/>
@@ -13602,7 +13622,7 @@
       <c r="J851" s="5"/>
       <c r="K851" s="5"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11">
       <c r="A852" s="10"/>
       <c r="B852" s="14"/>
       <c r="C852" s="5"/>
@@ -13614,7 +13634,7 @@
       <c r="J852" s="5"/>
       <c r="K852" s="5"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11">
       <c r="A853" s="10"/>
       <c r="B853" s="14"/>
       <c r="C853" s="5"/>
@@ -13626,7 +13646,7 @@
       <c r="J853" s="5"/>
       <c r="K853" s="5"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11">
       <c r="A854" s="10"/>
       <c r="B854" s="14"/>
       <c r="C854" s="5"/>
@@ -13638,7 +13658,7 @@
       <c r="J854" s="5"/>
       <c r="K854" s="5"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11">
       <c r="A855" s="10"/>
       <c r="B855" s="14"/>
       <c r="C855" s="5"/>
@@ -13650,7 +13670,7 @@
       <c r="J855" s="5"/>
       <c r="K855" s="5"/>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11">
       <c r="A856" s="10"/>
       <c r="B856" s="14"/>
       <c r="C856" s="5"/>
@@ -13662,7 +13682,7 @@
       <c r="J856" s="5"/>
       <c r="K856" s="5"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11">
       <c r="A857" s="10"/>
       <c r="B857" s="14"/>
       <c r="C857" s="5"/>
@@ -13674,7 +13694,7 @@
       <c r="J857" s="5"/>
       <c r="K857" s="5"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11">
       <c r="A858" s="10"/>
       <c r="B858" s="14"/>
       <c r="C858" s="5"/>
@@ -13686,7 +13706,7 @@
       <c r="J858" s="5"/>
       <c r="K858" s="5"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11">
       <c r="A859" s="10"/>
       <c r="B859" s="14"/>
       <c r="C859" s="5"/>
@@ -13698,7 +13718,7 @@
       <c r="J859" s="5"/>
       <c r="K859" s="5"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11">
       <c r="A860" s="10"/>
       <c r="B860" s="14"/>
       <c r="C860" s="5"/>
@@ -13710,7 +13730,7 @@
       <c r="J860" s="5"/>
       <c r="K860" s="5"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11">
       <c r="A861" s="10"/>
       <c r="B861" s="14"/>
       <c r="C861" s="5"/>
@@ -13722,7 +13742,7 @@
       <c r="J861" s="5"/>
       <c r="K861" s="5"/>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11">
       <c r="A862" s="10"/>
       <c r="B862" s="14"/>
       <c r="C862" s="5"/>
@@ -13734,7 +13754,7 @@
       <c r="J862" s="5"/>
       <c r="K862" s="5"/>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11">
       <c r="A863" s="10"/>
       <c r="B863" s="14"/>
       <c r="C863" s="5"/>
@@ -13746,7 +13766,7 @@
       <c r="J863" s="5"/>
       <c r="K863" s="5"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11">
       <c r="A864" s="10"/>
       <c r="B864" s="14"/>
       <c r="C864" s="5"/>
@@ -13758,7 +13778,7 @@
       <c r="J864" s="5"/>
       <c r="K864" s="5"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11">
       <c r="A865" s="10"/>
       <c r="B865" s="14"/>
       <c r="C865" s="5"/>
@@ -13770,7 +13790,7 @@
       <c r="J865" s="5"/>
       <c r="K865" s="5"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11">
       <c r="A866" s="10"/>
       <c r="B866" s="14"/>
       <c r="C866" s="5"/>
@@ -13782,7 +13802,7 @@
       <c r="J866" s="5"/>
       <c r="K866" s="5"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11">
       <c r="A867" s="10"/>
       <c r="B867" s="14"/>
       <c r="C867" s="5"/>
@@ -13794,7 +13814,7 @@
       <c r="J867" s="5"/>
       <c r="K867" s="5"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11">
       <c r="A868" s="10"/>
       <c r="B868" s="14"/>
       <c r="C868" s="5"/>
@@ -13806,7 +13826,7 @@
       <c r="J868" s="5"/>
       <c r="K868" s="5"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11">
       <c r="A869" s="10"/>
       <c r="B869" s="14"/>
       <c r="C869" s="5"/>
@@ -13818,7 +13838,7 @@
       <c r="J869" s="5"/>
       <c r="K869" s="5"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11">
       <c r="A870" s="10"/>
       <c r="B870" s="14"/>
       <c r="C870" s="5"/>
@@ -13830,7 +13850,7 @@
       <c r="J870" s="5"/>
       <c r="K870" s="5"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11">
       <c r="A871" s="10"/>
       <c r="B871" s="14"/>
       <c r="C871" s="5"/>
@@ -13842,7 +13862,7 @@
       <c r="J871" s="5"/>
       <c r="K871" s="5"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11">
       <c r="A872" s="10"/>
       <c r="B872" s="14"/>
       <c r="C872" s="5"/>
@@ -13854,7 +13874,7 @@
       <c r="J872" s="5"/>
       <c r="K872" s="5"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11">
       <c r="A873" s="10"/>
       <c r="B873" s="14"/>
       <c r="C873" s="5"/>
@@ -13866,7 +13886,7 @@
       <c r="J873" s="5"/>
       <c r="K873" s="5"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11">
       <c r="A874" s="10"/>
       <c r="B874" s="14"/>
       <c r="C874" s="5"/>
@@ -13878,7 +13898,7 @@
       <c r="J874" s="5"/>
       <c r="K874" s="5"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11">
       <c r="A875" s="10"/>
       <c r="B875" s="14"/>
       <c r="C875" s="5"/>
@@ -13890,7 +13910,7 @@
       <c r="J875" s="5"/>
       <c r="K875" s="5"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11">
       <c r="A876" s="10"/>
       <c r="B876" s="14"/>
       <c r="C876" s="5"/>
@@ -13902,7 +13922,7 @@
       <c r="J876" s="5"/>
       <c r="K876" s="5"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11">
       <c r="A877" s="10"/>
       <c r="B877" s="14"/>
       <c r="C877" s="5"/>
@@ -13914,7 +13934,7 @@
       <c r="J877" s="5"/>
       <c r="K877" s="5"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11">
       <c r="A878" s="10"/>
       <c r="B878" s="14"/>
       <c r="C878" s="5"/>
@@ -13926,7 +13946,7 @@
       <c r="J878" s="5"/>
       <c r="K878" s="5"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11">
       <c r="A879" s="10"/>
       <c r="B879" s="14"/>
       <c r="C879" s="5"/>
@@ -13938,7 +13958,7 @@
       <c r="J879" s="5"/>
       <c r="K879" s="5"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11">
       <c r="A880" s="10"/>
       <c r="B880" s="14"/>
       <c r="C880" s="5"/>
@@ -13950,7 +13970,7 @@
       <c r="J880" s="5"/>
       <c r="K880" s="5"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11">
       <c r="A881" s="10"/>
       <c r="B881" s="14"/>
       <c r="C881" s="5"/>
@@ -13962,7 +13982,7 @@
       <c r="J881" s="5"/>
       <c r="K881" s="5"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11">
       <c r="A882" s="10"/>
       <c r="B882" s="14"/>
       <c r="C882" s="5"/>
@@ -13974,7 +13994,7 @@
       <c r="J882" s="5"/>
       <c r="K882" s="5"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11">
       <c r="A883" s="10"/>
       <c r="B883" s="14"/>
       <c r="C883" s="5"/>
@@ -13986,7 +14006,7 @@
       <c r="J883" s="5"/>
       <c r="K883" s="5"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11">
       <c r="A884" s="10"/>
       <c r="B884" s="14"/>
       <c r="C884" s="5"/>
@@ -13998,7 +14018,7 @@
       <c r="J884" s="5"/>
       <c r="K884" s="5"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11">
       <c r="A885" s="10"/>
       <c r="B885" s="14"/>
       <c r="C885" s="5"/>
@@ -14010,7 +14030,7 @@
       <c r="J885" s="5"/>
       <c r="K885" s="5"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11">
       <c r="A886" s="10"/>
       <c r="B886" s="14"/>
       <c r="C886" s="5"/>
@@ -14022,7 +14042,7 @@
       <c r="J886" s="5"/>
       <c r="K886" s="5"/>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11">
       <c r="A887" s="10"/>
       <c r="B887" s="14"/>
       <c r="C887" s="5"/>
@@ -14034,7 +14054,7 @@
       <c r="J887" s="5"/>
       <c r="K887" s="5"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11">
       <c r="A888" s="10"/>
       <c r="B888" s="14"/>
       <c r="C888" s="5"/>
@@ -14046,7 +14066,7 @@
       <c r="J888" s="5"/>
       <c r="K888" s="5"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11">
       <c r="A889" s="10"/>
       <c r="B889" s="14"/>
       <c r="C889" s="5"/>
@@ -14058,7 +14078,7 @@
       <c r="J889" s="5"/>
       <c r="K889" s="5"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11">
       <c r="A890" s="10"/>
       <c r="B890" s="14"/>
       <c r="C890" s="5"/>
@@ -14070,7 +14090,7 @@
       <c r="J890" s="5"/>
       <c r="K890" s="5"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11">
       <c r="A891" s="10"/>
       <c r="B891" s="14"/>
       <c r="C891" s="5"/>
@@ -14082,7 +14102,7 @@
       <c r="J891" s="5"/>
       <c r="K891" s="5"/>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11">
       <c r="A892" s="10"/>
       <c r="B892" s="14"/>
       <c r="C892" s="5"/>
@@ -14094,7 +14114,7 @@
       <c r="J892" s="5"/>
       <c r="K892" s="5"/>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11">
       <c r="A893" s="10"/>
       <c r="B893" s="14"/>
       <c r="C893" s="5"/>
@@ -14106,7 +14126,7 @@
       <c r="J893" s="5"/>
       <c r="K893" s="5"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11">
       <c r="A894" s="10"/>
       <c r="B894" s="14"/>
       <c r="C894" s="5"/>
@@ -14118,7 +14138,7 @@
       <c r="J894" s="5"/>
       <c r="K894" s="5"/>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11">
       <c r="A895" s="10"/>
       <c r="B895" s="14"/>
       <c r="C895" s="5"/>
@@ -14130,7 +14150,7 @@
       <c r="J895" s="5"/>
       <c r="K895" s="5"/>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11">
       <c r="A896" s="10"/>
       <c r="B896" s="14"/>
       <c r="C896" s="5"/>
@@ -14142,7 +14162,7 @@
       <c r="J896" s="5"/>
       <c r="K896" s="5"/>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11">
       <c r="A897" s="10"/>
       <c r="B897" s="14"/>
       <c r="C897" s="5"/>
@@ -14154,7 +14174,7 @@
       <c r="J897" s="5"/>
       <c r="K897" s="5"/>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11">
       <c r="A898" s="10"/>
       <c r="B898" s="14"/>
       <c r="C898" s="5"/>
@@ -14166,7 +14186,7 @@
       <c r="J898" s="5"/>
       <c r="K898" s="5"/>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11">
       <c r="A899" s="10"/>
       <c r="B899" s="14"/>
       <c r="C899" s="5"/>
@@ -14178,7 +14198,7 @@
       <c r="J899" s="5"/>
       <c r="K899" s="5"/>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11">
       <c r="A900" s="10"/>
       <c r="B900" s="14"/>
       <c r="C900" s="5"/>
@@ -14190,7 +14210,7 @@
       <c r="J900" s="5"/>
       <c r="K900" s="5"/>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11">
       <c r="A901" s="10"/>
       <c r="B901" s="14"/>
       <c r="C901" s="5"/>
@@ -14202,7 +14222,7 @@
       <c r="J901" s="5"/>
       <c r="K901" s="5"/>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11">
       <c r="A902" s="10"/>
       <c r="B902" s="14"/>
       <c r="C902" s="5"/>
@@ -14214,7 +14234,7 @@
       <c r="J902" s="5"/>
       <c r="K902" s="5"/>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11">
       <c r="A903" s="10"/>
       <c r="B903" s="14"/>
       <c r="C903" s="5"/>
@@ -14226,7 +14246,7 @@
       <c r="J903" s="5"/>
       <c r="K903" s="5"/>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11">
       <c r="A904" s="10"/>
       <c r="B904" s="14"/>
       <c r="C904" s="5"/>
@@ -14238,7 +14258,7 @@
       <c r="J904" s="5"/>
       <c r="K904" s="5"/>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11">
       <c r="A905" s="10"/>
       <c r="B905" s="14"/>
       <c r="C905" s="5"/>
@@ -14250,7 +14270,7 @@
       <c r="J905" s="5"/>
       <c r="K905" s="5"/>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11">
       <c r="A906" s="10"/>
       <c r="B906" s="14"/>
       <c r="C906" s="5"/>
@@ -14262,7 +14282,7 @@
       <c r="J906" s="5"/>
       <c r="K906" s="5"/>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11">
       <c r="A907" s="10"/>
       <c r="B907" s="14"/>
       <c r="C907" s="5"/>
@@ -14274,7 +14294,7 @@
       <c r="J907" s="5"/>
       <c r="K907" s="5"/>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11">
       <c r="A908" s="10"/>
       <c r="B908" s="14"/>
       <c r="C908" s="5"/>
@@ -14286,7 +14306,7 @@
       <c r="J908" s="5"/>
       <c r="K908" s="5"/>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11">
       <c r="A909" s="10"/>
       <c r="B909" s="14"/>
       <c r="C909" s="5"/>
@@ -14298,7 +14318,7 @@
       <c r="J909" s="5"/>
       <c r="K909" s="5"/>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11">
       <c r="A910" s="10"/>
       <c r="B910" s="14"/>
       <c r="C910" s="5"/>
@@ -14310,7 +14330,7 @@
       <c r="J910" s="5"/>
       <c r="K910" s="5"/>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11">
       <c r="A911" s="10"/>
       <c r="B911" s="14"/>
       <c r="C911" s="5"/>
@@ -14322,7 +14342,7 @@
       <c r="J911" s="5"/>
       <c r="K911" s="5"/>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11">
       <c r="A912" s="10"/>
       <c r="B912" s="14"/>
       <c r="C912" s="5"/>
@@ -14334,7 +14354,7 @@
       <c r="J912" s="5"/>
       <c r="K912" s="5"/>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11">
       <c r="A913" s="10"/>
       <c r="B913" s="14"/>
       <c r="C913" s="5"/>
@@ -14346,7 +14366,7 @@
       <c r="J913" s="5"/>
       <c r="K913" s="5"/>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11">
       <c r="A914" s="10"/>
       <c r="B914" s="14"/>
       <c r="C914" s="5"/>
@@ -14358,7 +14378,7 @@
       <c r="J914" s="5"/>
       <c r="K914" s="5"/>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11">
       <c r="A915" s="10"/>
       <c r="B915" s="14"/>
       <c r="C915" s="5"/>
@@ -14370,7 +14390,7 @@
       <c r="J915" s="5"/>
       <c r="K915" s="5"/>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11">
       <c r="A916" s="10"/>
       <c r="B916" s="14"/>
       <c r="C916" s="5"/>
@@ -14382,7 +14402,7 @@
       <c r="J916" s="5"/>
       <c r="K916" s="5"/>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11">
       <c r="A917" s="10"/>
       <c r="B917" s="14"/>
       <c r="C917" s="5"/>
@@ -14394,7 +14414,7 @@
       <c r="J917" s="5"/>
       <c r="K917" s="5"/>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11">
       <c r="A918" s="10"/>
       <c r="B918" s="14"/>
       <c r="C918" s="5"/>
@@ -14406,7 +14426,7 @@
       <c r="J918" s="5"/>
       <c r="K918" s="5"/>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11">
       <c r="A919" s="10"/>
       <c r="B919" s="14"/>
       <c r="C919" s="5"/>
@@ -14418,7 +14438,7 @@
       <c r="J919" s="5"/>
       <c r="K919" s="5"/>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11">
       <c r="A920" s="10"/>
       <c r="B920" s="14"/>
       <c r="C920" s="5"/>
@@ -14430,7 +14450,7 @@
       <c r="J920" s="5"/>
       <c r="K920" s="5"/>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11">
       <c r="A921" s="10"/>
       <c r="B921" s="14"/>
       <c r="C921" s="5"/>
@@ -14442,7 +14462,7 @@
       <c r="J921" s="5"/>
       <c r="K921" s="5"/>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11">
       <c r="A922" s="10"/>
       <c r="B922" s="14"/>
       <c r="C922" s="5"/>
@@ -14454,7 +14474,7 @@
       <c r="J922" s="5"/>
       <c r="K922" s="5"/>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11">
       <c r="A923" s="10"/>
       <c r="B923" s="14"/>
       <c r="C923" s="5"/>
@@ -14466,7 +14486,7 @@
       <c r="J923" s="5"/>
       <c r="K923" s="5"/>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11">
       <c r="A924" s="10"/>
       <c r="B924" s="14"/>
       <c r="C924" s="5"/>
@@ -14478,7 +14498,7 @@
       <c r="J924" s="5"/>
       <c r="K924" s="5"/>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11">
       <c r="A925" s="10"/>
       <c r="B925" s="14"/>
       <c r="C925" s="5"/>
@@ -14490,7 +14510,7 @@
       <c r="J925" s="5"/>
       <c r="K925" s="5"/>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11">
       <c r="A926" s="10"/>
       <c r="B926" s="14"/>
       <c r="C926" s="5"/>
@@ -14502,7 +14522,7 @@
       <c r="J926" s="5"/>
       <c r="K926" s="5"/>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11">
       <c r="A927" s="10"/>
       <c r="B927" s="14"/>
       <c r="C927" s="5"/>
@@ -14514,7 +14534,7 @@
       <c r="J927" s="5"/>
       <c r="K927" s="5"/>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11">
       <c r="A928" s="10"/>
       <c r="B928" s="14"/>
       <c r="C928" s="5"/>
@@ -14526,7 +14546,7 @@
       <c r="J928" s="5"/>
       <c r="K928" s="5"/>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11">
       <c r="A929" s="10"/>
       <c r="B929" s="14"/>
       <c r="C929" s="5"/>
@@ -14538,7 +14558,7 @@
       <c r="J929" s="5"/>
       <c r="K929" s="5"/>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11">
       <c r="A930" s="10"/>
       <c r="B930" s="14"/>
       <c r="C930" s="5"/>
@@ -14550,7 +14570,7 @@
       <c r="J930" s="5"/>
       <c r="K930" s="5"/>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11">
       <c r="A931" s="10"/>
       <c r="B931" s="14"/>
       <c r="C931" s="5"/>
@@ -14562,7 +14582,7 @@
       <c r="J931" s="5"/>
       <c r="K931" s="5"/>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11">
       <c r="A932" s="10"/>
       <c r="B932" s="14"/>
       <c r="C932" s="5"/>
@@ -14574,7 +14594,7 @@
       <c r="J932" s="5"/>
       <c r="K932" s="5"/>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11">
       <c r="A933" s="10"/>
       <c r="B933" s="14"/>
       <c r="C933" s="5"/>
@@ -14586,7 +14606,7 @@
       <c r="J933" s="5"/>
       <c r="K933" s="5"/>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11">
       <c r="A934" s="10"/>
       <c r="B934" s="14"/>
       <c r="C934" s="5"/>
@@ -14598,7 +14618,7 @@
       <c r="J934" s="5"/>
       <c r="K934" s="5"/>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11">
       <c r="A935" s="10"/>
       <c r="B935" s="14"/>
       <c r="C935" s="5"/>
@@ -14610,7 +14630,7 @@
       <c r="J935" s="5"/>
       <c r="K935" s="5"/>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11">
       <c r="A936" s="10"/>
       <c r="B936" s="14"/>
       <c r="C936" s="5"/>
@@ -14622,7 +14642,7 @@
       <c r="J936" s="5"/>
       <c r="K936" s="5"/>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11">
       <c r="A937" s="10"/>
       <c r="B937" s="14"/>
       <c r="C937" s="5"/>
@@ -14634,7 +14654,7 @@
       <c r="J937" s="5"/>
       <c r="K937" s="5"/>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11">
       <c r="A938" s="10"/>
       <c r="B938" s="14"/>
       <c r="C938" s="5"/>
@@ -14646,7 +14666,7 @@
       <c r="J938" s="5"/>
       <c r="K938" s="5"/>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11">
       <c r="A939" s="10"/>
       <c r="B939" s="14"/>
       <c r="C939" s="5"/>
@@ -14658,7 +14678,7 @@
       <c r="J939" s="5"/>
       <c r="K939" s="5"/>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11">
       <c r="A940" s="10"/>
       <c r="B940" s="14"/>
       <c r="C940" s="5"/>
@@ -14670,7 +14690,7 @@
       <c r="J940" s="5"/>
       <c r="K940" s="5"/>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11">
       <c r="A941" s="10"/>
       <c r="B941" s="14"/>
       <c r="C941" s="5"/>
@@ -14682,7 +14702,7 @@
       <c r="J941" s="5"/>
       <c r="K941" s="5"/>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11">
       <c r="A942" s="10"/>
       <c r="B942" s="14"/>
       <c r="C942" s="5"/>
@@ -14694,7 +14714,7 @@
       <c r="J942" s="5"/>
       <c r="K942" s="5"/>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11">
       <c r="A943" s="10"/>
       <c r="B943" s="14"/>
       <c r="C943" s="5"/>
@@ -14706,7 +14726,7 @@
       <c r="J943" s="5"/>
       <c r="K943" s="5"/>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11">
       <c r="A944" s="10"/>
       <c r="B944" s="14"/>
       <c r="C944" s="5"/>
@@ -14718,7 +14738,7 @@
       <c r="J944" s="5"/>
       <c r="K944" s="5"/>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11">
       <c r="A945" s="10"/>
       <c r="B945" s="14"/>
       <c r="C945" s="5"/>
@@ -14730,7 +14750,7 @@
       <c r="J945" s="5"/>
       <c r="K945" s="5"/>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11">
       <c r="A946" s="10"/>
       <c r="B946" s="14"/>
       <c r="C946" s="5"/>
@@ -14742,7 +14762,7 @@
       <c r="J946" s="5"/>
       <c r="K946" s="5"/>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11">
       <c r="A947" s="10"/>
       <c r="B947" s="14"/>
       <c r="C947" s="5"/>
@@ -14754,7 +14774,7 @@
       <c r="J947" s="5"/>
       <c r="K947" s="5"/>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11">
       <c r="A948" s="10"/>
       <c r="B948" s="14"/>
       <c r="C948" s="5"/>
@@ -14766,7 +14786,7 @@
       <c r="J948" s="5"/>
       <c r="K948" s="5"/>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11">
       <c r="A949" s="10"/>
       <c r="B949" s="14"/>
       <c r="C949" s="5"/>
@@ -14778,7 +14798,7 @@
       <c r="J949" s="5"/>
       <c r="K949" s="5"/>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:11">
       <c r="A950" s="10"/>
       <c r="B950" s="14"/>
       <c r="C950" s="5"/>
@@ -14790,7 +14810,7 @@
       <c r="J950" s="5"/>
       <c r="K950" s="5"/>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:11">
       <c r="A951" s="10"/>
       <c r="B951" s="14"/>
       <c r="C951" s="5"/>
@@ -14802,7 +14822,7 @@
       <c r="J951" s="5"/>
       <c r="K951" s="5"/>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:11">
       <c r="A952" s="10"/>
       <c r="B952" s="14"/>
       <c r="C952" s="5"/>
@@ -14814,7 +14834,7 @@
       <c r="J952" s="5"/>
       <c r="K952" s="5"/>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:11">
       <c r="A953" s="10"/>
       <c r="B953" s="14"/>
       <c r="C953" s="5"/>
@@ -14826,7 +14846,7 @@
       <c r="J953" s="5"/>
       <c r="K953" s="5"/>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:11">
       <c r="A954" s="10"/>
       <c r="B954" s="14"/>
       <c r="C954" s="5"/>
@@ -14838,7 +14858,7 @@
       <c r="J954" s="5"/>
       <c r="K954" s="5"/>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:11">
       <c r="A955" s="10"/>
       <c r="B955" s="14"/>
       <c r="C955" s="5"/>
@@ -14850,7 +14870,7 @@
       <c r="J955" s="5"/>
       <c r="K955" s="5"/>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:11">
       <c r="A956" s="10"/>
       <c r="B956" s="14"/>
       <c r="C956" s="5"/>
@@ -14862,7 +14882,7 @@
       <c r="J956" s="5"/>
       <c r="K956" s="5"/>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:11">
       <c r="A957" s="10"/>
       <c r="B957" s="14"/>
       <c r="C957" s="5"/>
@@ -14874,7 +14894,7 @@
       <c r="J957" s="5"/>
       <c r="K957" s="5"/>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:11">
       <c r="A958" s="10"/>
       <c r="B958" s="14"/>
       <c r="C958" s="5"/>
@@ -14886,7 +14906,7 @@
       <c r="J958" s="5"/>
       <c r="K958" s="5"/>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:11">
       <c r="A959" s="10"/>
       <c r="B959" s="14"/>
       <c r="C959" s="5"/>
@@ -14898,7 +14918,7 @@
       <c r="J959" s="5"/>
       <c r="K959" s="5"/>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:11">
       <c r="A960" s="10"/>
       <c r="B960" s="14"/>
       <c r="C960" s="5"/>
@@ -14910,7 +14930,7 @@
       <c r="J960" s="5"/>
       <c r="K960" s="5"/>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:11">
       <c r="A961" s="10"/>
       <c r="B961" s="14"/>
       <c r="C961" s="5"/>
@@ -14922,7 +14942,7 @@
       <c r="J961" s="5"/>
       <c r="K961" s="5"/>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:11">
       <c r="A962" s="10"/>
       <c r="B962" s="14"/>
       <c r="C962" s="5"/>
@@ -14934,7 +14954,7 @@
       <c r="J962" s="5"/>
       <c r="K962" s="5"/>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:11">
       <c r="A963" s="10"/>
       <c r="B963" s="14"/>
       <c r="C963" s="5"/>
@@ -14946,7 +14966,7 @@
       <c r="J963" s="5"/>
       <c r="K963" s="5"/>
     </row>
-    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:11">
       <c r="A964" s="10"/>
       <c r="B964" s="14"/>
       <c r="C964" s="5"/>
@@ -14958,7 +14978,7 @@
       <c r="J964" s="5"/>
       <c r="K964" s="5"/>
     </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:11">
       <c r="A965" s="10"/>
       <c r="B965" s="14"/>
       <c r="C965" s="5"/>
@@ -14972,7 +14992,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14981,33 +15006,38 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="21" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>